--- a/content/simulator/Period 5.xlsx
+++ b/content/simulator/Period 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/GitHub/website/content/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{441C7A6D-ED1E-4388-95F7-E157F389B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D8EABB-0F97-4B90-B938-F5F2EC29DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{7627967C-5C85-4E69-ABBF-013B278B8049}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{BFC03557-48BB-49B4-A9FD-D2F5592615AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo 5" sheetId="1" r:id="rId1"/>
@@ -902,19 +902,19 @@
     <t>9°</t>
   </si>
   <si>
-    <t>4°</t>
+    <t>5°</t>
   </si>
   <si>
     <t>10°</t>
+  </si>
+  <si>
+    <t>4°</t>
   </si>
   <si>
     <t>3°</t>
   </si>
   <si>
     <t>7°</t>
-  </si>
-  <si>
-    <t>5°</t>
   </si>
   <si>
     <t>1°</t>
@@ -3100,7 +3100,7 @@
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{9EEEF05D-2247-4644-820F-0023D88016EE}"/>
+    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{D6A1262F-FE14-4D64-B876-C8E26A88029C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -4929,10 +4929,10 @@
             <v>12250000</v>
           </cell>
           <cell r="W547">
-            <v>13621400</v>
+            <v>14500200</v>
           </cell>
           <cell r="X547">
-            <v>15470370</v>
+            <v>16556010</v>
           </cell>
         </row>
         <row r="548">
@@ -5163,10 +5163,10 @@
             <v>64551</v>
           </cell>
           <cell r="K583">
-            <v>58186</v>
+            <v>54355</v>
           </cell>
           <cell r="L583">
-            <v>61010</v>
+            <v>56667</v>
           </cell>
         </row>
         <row r="584">
@@ -5291,10 +5291,10 @@
             <v>0.44740000000000002</v>
           </cell>
           <cell r="W648">
-            <v>0.4612</v>
+            <v>0.46970000000000001</v>
           </cell>
           <cell r="X648">
-            <v>0.47010000000000002</v>
+            <v>0.47889999999999999</v>
           </cell>
         </row>
         <row r="649">
@@ -5355,10 +5355,10 @@
             <v>4202229.3434349401</v>
           </cell>
           <cell r="W651">
-            <v>4302584.8957567103</v>
+            <v>4614898.8803835269</v>
           </cell>
           <cell r="X651">
-            <v>5004402.805726558</v>
+            <v>5393240.2676046789</v>
           </cell>
         </row>
         <row r="680">
@@ -5380,7 +5380,7 @@
             <v>12616500</v>
           </cell>
           <cell r="S682">
-            <v>7348000</v>
+            <v>13961200</v>
           </cell>
           <cell r="T682">
             <v>9000000</v>
@@ -5412,7 +5412,7 @@
             <v>500</v>
           </cell>
           <cell r="G683">
-            <v>500</v>
+            <v>950</v>
           </cell>
           <cell r="H683">
             <v>900</v>
@@ -5424,10 +5424,10 @@
             <v>1500</v>
           </cell>
           <cell r="K683">
-            <v>775</v>
+            <v>825</v>
           </cell>
           <cell r="L683">
-            <v>855</v>
+            <v>915</v>
           </cell>
         </row>
         <row r="684">
@@ -5444,7 +5444,7 @@
             <v>250000</v>
           </cell>
           <cell r="G684">
-            <v>250000</v>
+            <v>60000</v>
           </cell>
           <cell r="H684">
             <v>200000</v>
@@ -5464,7 +5464,7 @@
         </row>
         <row r="700">
           <cell r="C700">
-            <v>882.12398684365087</v>
+            <v>932.50364148948665</v>
           </cell>
         </row>
         <row r="703">
@@ -5602,34 +5602,34 @@
         </row>
         <row r="718">
           <cell r="C718">
-            <v>236230</v>
+            <v>246188</v>
           </cell>
           <cell r="D718">
-            <v>64170</v>
+            <v>66976</v>
           </cell>
           <cell r="E718">
-            <v>44283</v>
+            <v>46350</v>
           </cell>
           <cell r="F718">
-            <v>230028</v>
+            <v>239771</v>
           </cell>
           <cell r="G718">
-            <v>504572</v>
+            <v>64208</v>
           </cell>
           <cell r="H718">
-            <v>300441</v>
+            <v>313108</v>
           </cell>
           <cell r="I718">
-            <v>112131</v>
+            <v>116966</v>
           </cell>
           <cell r="J718">
-            <v>86277</v>
+            <v>90043</v>
           </cell>
           <cell r="K718">
-            <v>124636</v>
+            <v>121816</v>
           </cell>
           <cell r="L718">
-            <v>131142</v>
+            <v>127477</v>
           </cell>
         </row>
         <row r="719">
@@ -5678,7 +5678,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S761">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T761">
             <v>1020000</v>
@@ -5710,7 +5710,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S782">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T782">
             <v>1020000</v>
@@ -5742,7 +5742,7 @@
             <v>0.39129999999999998</v>
           </cell>
           <cell r="S783">
-            <v>0.33360000000000001</v>
+            <v>0.63819999999999999</v>
           </cell>
           <cell r="T783">
             <v>0.34749999999999998</v>
@@ -5754,74 +5754,74 @@
             <v>0.48170000000000002</v>
           </cell>
           <cell r="W783">
-            <v>0.25929999999999997</v>
+            <v>0.26390000000000002</v>
           </cell>
           <cell r="X783">
-            <v>0.26369999999999999</v>
+            <v>0.26850000000000002</v>
           </cell>
         </row>
         <row r="784">
           <cell r="O784">
-            <v>7.417933848184384E-2</v>
+            <v>7.3896570576427817E-2</v>
           </cell>
           <cell r="P784">
-            <v>6.6804076486978711E-2</v>
+            <v>6.6613873227691994E-2</v>
           </cell>
           <cell r="Q784">
-            <v>6.7669707136064738E-2</v>
+            <v>6.7466211180538929E-2</v>
           </cell>
           <cell r="R784">
-            <v>7.0343745931463239E-2</v>
+            <v>7.0106206147441411E-2</v>
           </cell>
           <cell r="S784">
-            <v>6.9439618356947549E-2</v>
+            <v>6.9216855082295387E-2</v>
           </cell>
           <cell r="T784">
-            <v>6.4224036587540431E-2</v>
+            <v>6.4064239870485803E-2</v>
           </cell>
           <cell r="U784">
-            <v>7.1893669695719212E-2</v>
+            <v>7.1638029879665527E-2</v>
           </cell>
           <cell r="V784">
-            <v>7.700263189719124E-2</v>
+            <v>7.6686962151627777E-2</v>
           </cell>
           <cell r="W784">
-            <v>7.7075663301588881E-2</v>
+            <v>7.73722070171909E-2</v>
           </cell>
           <cell r="X784">
-            <v>7.8110926894308222E-2</v>
+            <v>7.841506352421275E-2</v>
           </cell>
         </row>
         <row r="786">
           <cell r="O786">
-            <v>2200327.6783303246</v>
+            <v>2203383.2722184472</v>
           </cell>
           <cell r="P786">
-            <v>3415732.4257783666</v>
+            <v>3418173.9642719193</v>
           </cell>
           <cell r="Q786">
-            <v>1999435.2390475289</v>
+            <v>2001033.7795587736</v>
           </cell>
           <cell r="R786">
-            <v>4585312.0111815892</v>
+            <v>4588705.6014637602</v>
           </cell>
           <cell r="S786">
-            <v>2761372.3190158634</v>
+            <v>8514837.6747292206</v>
           </cell>
           <cell r="T786">
-            <v>3306650.6831659679</v>
+            <v>3308515.9735254152</v>
           </cell>
           <cell r="U786">
-            <v>14868079.917404663</v>
+            <v>14878105.793818031</v>
           </cell>
           <cell r="V786">
-            <v>12216941.359490929</v>
+            <v>12226470.748793839</v>
           </cell>
           <cell r="W786">
-            <v>2118365.375750056</v>
+            <v>2272277.9270319091</v>
           </cell>
           <cell r="X786">
-            <v>2408773.7074818597</v>
+            <v>2597908.9010407696</v>
           </cell>
         </row>
         <row r="815">
@@ -5944,7 +5944,7 @@
             <v>90951</v>
           </cell>
           <cell r="G838">
-            <v>195198</v>
+            <v>255198</v>
           </cell>
           <cell r="H838">
             <v>432357.5</v>
@@ -5981,7 +5981,7 @@
             <v>37709</v>
           </cell>
           <cell r="G848">
-            <v>28226</v>
+            <v>19226</v>
           </cell>
           <cell r="H848">
             <v>16000</v>
@@ -6077,7 +6077,7 @@
             <v>19327</v>
           </cell>
           <cell r="G853">
-            <v>38979</v>
+            <v>49703</v>
           </cell>
           <cell r="H853">
             <v>80028</v>
@@ -6141,7 +6141,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S896">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T896">
             <v>1020000</v>
@@ -6173,7 +6173,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S917">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T917">
             <v>1020000</v>
@@ -6205,7 +6205,7 @@
             <v>0.15909999999999999</v>
           </cell>
           <cell r="S918">
-            <v>0.1166</v>
+            <v>-1.5100000000000001E-2</v>
           </cell>
           <cell r="T918">
             <v>0.1525</v>
@@ -6225,60 +6225,60 @@
         </row>
         <row r="919">
           <cell r="O919">
-            <v>7.0449759787082539E-2</v>
+            <v>6.9463161293880873E-2</v>
           </cell>
           <cell r="P919">
-            <v>6.7904822299607037E-2</v>
+            <v>6.7069650867255304E-2</v>
           </cell>
           <cell r="Q919">
-            <v>6.8741110340340306E-2</v>
+            <v>6.7849182700351729E-2</v>
           </cell>
           <cell r="R919">
-            <v>7.4302431349840048E-2</v>
+            <v>7.3122970285415381E-2</v>
           </cell>
           <cell r="S919">
-            <v>6.9788134011512598E-2</v>
+            <v>8.2277135460875034E-2</v>
           </cell>
           <cell r="T919">
-            <v>6.769903897332373E-2</v>
+            <v>6.6873656376477936E-2</v>
           </cell>
           <cell r="U919">
-            <v>7.4701166348642101E-2</v>
+            <v>7.3504505890878993E-2</v>
           </cell>
           <cell r="V919">
-            <v>7.8562236311055772E-2</v>
+            <v>7.7161060419317279E-2</v>
           </cell>
           <cell r="W919">
-            <v>7.2677095940232958E-2</v>
+            <v>7.2079198310096237E-2</v>
           </cell>
           <cell r="X919">
-            <v>7.3355762485967854E-2</v>
+            <v>7.2737886510282873E-2</v>
           </cell>
         </row>
         <row r="921">
           <cell r="O921">
-            <v>-1095186.9028858989</v>
+            <v>-1084525.7059533026</v>
           </cell>
           <cell r="P921">
-            <v>949408.63385942462</v>
+            <v>960483.66704036924</v>
           </cell>
           <cell r="Q921">
-            <v>341248.70790985361</v>
+            <v>348716.26056491112</v>
           </cell>
           <cell r="R921">
-            <v>1159244.5510267296</v>
+            <v>1175368.6431893639</v>
           </cell>
           <cell r="S921">
-            <v>481859.69946034043</v>
+            <v>-1480488.9597412583</v>
           </cell>
           <cell r="T921">
-            <v>1018150.0459829469</v>
+            <v>1028059.8785928357</v>
           </cell>
           <cell r="U921">
-            <v>5320360.4990535509</v>
+            <v>5365164.9838382956</v>
           </cell>
           <cell r="V921">
-            <v>3819420.1416976708</v>
+            <v>3859890.2712104144</v>
           </cell>
           <cell r="W921" t="e">
             <v>#VALUE!</v>
@@ -6407,7 +6407,7 @@
             <v>105144.40000000001</v>
           </cell>
           <cell r="G973">
-            <v>198966.7</v>
+            <v>252966.7</v>
           </cell>
           <cell r="H973">
             <v>412410.25</v>
@@ -6444,7 +6444,7 @@
             <v>34939</v>
           </cell>
           <cell r="G983">
-            <v>26404</v>
+            <v>18304</v>
           </cell>
           <cell r="H983">
             <v>15400</v>
@@ -6540,7 +6540,7 @@
             <v>22415</v>
           </cell>
           <cell r="G988">
-            <v>40189</v>
+            <v>49964</v>
           </cell>
           <cell r="H988">
             <v>77705</v>
@@ -6604,7 +6604,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S1031">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T1031">
             <v>1020000</v>
@@ -6662,13 +6662,13 @@
             <v>8.8000000000000005E-3</v>
           </cell>
           <cell r="Q1053">
-            <v>2.9700000000000001E-2</v>
+            <v>2.98E-2</v>
           </cell>
           <cell r="R1053">
             <v>-2.2700000000000001E-2</v>
           </cell>
           <cell r="S1053">
-            <v>-1.46E-2</v>
+            <v>1.9E-3</v>
           </cell>
           <cell r="T1053">
             <v>5.7999999999999996E-3</v>
@@ -6870,7 +6870,7 @@
             <v>117918.46</v>
           </cell>
           <cell r="G1108">
-            <v>202358.53000000003</v>
+            <v>250958.53000000003</v>
           </cell>
           <cell r="H1108">
             <v>394457.72500000003</v>
@@ -6907,7 +6907,7 @@
             <v>32446</v>
           </cell>
           <cell r="G1118">
-            <v>24764</v>
+            <v>17474</v>
           </cell>
           <cell r="H1118">
             <v>14860</v>
@@ -7003,7 +7003,7 @@
             <v>25374</v>
           </cell>
           <cell r="G1123">
-            <v>41551</v>
+            <v>50503</v>
           </cell>
           <cell r="H1123">
             <v>75995</v>
@@ -7067,7 +7067,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S1166">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T1166">
             <v>1020000</v>
@@ -7333,7 +7333,7 @@
             <v>129415.114</v>
           </cell>
           <cell r="G1243">
-            <v>205411.17700000003</v>
+            <v>249151.17700000003</v>
           </cell>
           <cell r="H1243">
             <v>378300.45250000001</v>
@@ -7370,7 +7370,7 @@
             <v>30202</v>
           </cell>
           <cell r="G1253">
-            <v>23288</v>
+            <v>16727</v>
           </cell>
           <cell r="H1253">
             <v>14374</v>
@@ -7466,7 +7466,7 @@
             <v>28109</v>
           </cell>
           <cell r="G1258">
-            <v>42832</v>
+            <v>51021</v>
           </cell>
           <cell r="H1258">
             <v>74415</v>
@@ -7530,7 +7530,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S1301">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T1301">
             <v>1020000</v>
@@ -7796,7 +7796,7 @@
             <v>139762.10259999998</v>
           </cell>
           <cell r="G1378">
-            <v>208158.55930000002</v>
+            <v>247524.55930000002</v>
           </cell>
           <cell r="H1378">
             <v>363758.90725000005</v>
@@ -7833,7 +7833,7 @@
             <v>28182</v>
           </cell>
           <cell r="G1388">
-            <v>21960</v>
+            <v>16055</v>
           </cell>
           <cell r="H1388">
             <v>13937</v>
@@ -7865,7 +7865,7 @@
             <v>26364</v>
           </cell>
           <cell r="G1390">
-            <v>20765</v>
+            <v>15450</v>
           </cell>
           <cell r="H1390">
             <v>13544</v>
@@ -7961,7 +7961,7 @@
             <v>30527</v>
           </cell>
           <cell r="G1393">
-            <v>43875</v>
+            <v>51331</v>
           </cell>
           <cell r="H1393">
             <v>72693</v>
@@ -8025,7 +8025,7 @@
             <v>1740000</v>
           </cell>
           <cell r="S1436">
-            <v>940000</v>
+            <v>1020000</v>
           </cell>
           <cell r="T1436">
             <v>1020000</v>
@@ -8232,12 +8232,12 @@
         </row>
         <row r="17">
           <cell r="M17">
-            <v>0.29927531369394705</v>
+            <v>0.30281338086439147</v>
           </cell>
         </row>
         <row r="18">
           <cell r="M18">
-            <v>0.30805702671731605</v>
+            <v>0.33402985339630975</v>
           </cell>
         </row>
         <row r="19">
@@ -9086,7 +9086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA8DD4-711C-47FF-A584-316BA759FBB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1EB034-DEEB-4F2F-AC9F-C78203629ADB}">
   <sheetPr codeName="Hoja9">
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9888,14 +9888,14 @@
         <v>29</v>
       </c>
       <c r="AR11" s="43">
-        <v>7348000</v>
+        <v>13961200</v>
       </c>
       <c r="AS11" s="14"/>
       <c r="AT11" s="44" t="s">
         <v>30</v>
       </c>
       <c r="AU11" s="45">
-        <v>7460510.1312500006</v>
+        <v>12793125.631250001</v>
       </c>
       <c r="AV11" s="17"/>
       <c r="AW11" s="7"/>
@@ -9967,7 +9967,7 @@
         <v>30</v>
       </c>
       <c r="CI11" s="45">
-        <v>9213833.1974999998</v>
+        <v>9770772.6975000016</v>
       </c>
       <c r="CJ11" s="17"/>
       <c r="CK11" s="7"/>
@@ -9985,7 +9985,7 @@
         <v>30</v>
       </c>
       <c r="CS11" s="45">
-        <v>10473582.684999999</v>
+        <v>11161607.035</v>
       </c>
       <c r="CT11" s="17"/>
       <c r="CU11" s="7"/>
@@ -10105,14 +10105,14 @@
         <v>33</v>
       </c>
       <c r="AR12" s="56">
-        <v>2277880.0000000005</v>
+        <v>13961200</v>
       </c>
       <c r="AS12" s="14"/>
       <c r="AT12" s="57" t="s">
         <v>34</v>
       </c>
       <c r="AU12" s="58">
-        <v>4225450.1312500006</v>
+        <v>12093125.631250001</v>
       </c>
       <c r="AV12" s="17"/>
       <c r="AW12" s="32"/>
@@ -10184,7 +10184,7 @@
         <v>34</v>
       </c>
       <c r="CI12" s="58">
-        <v>7907461.1974999998</v>
+        <v>8464400.6975000016</v>
       </c>
       <c r="CJ12" s="17"/>
       <c r="CK12" s="32"/>
@@ -10202,7 +10202,7 @@
         <v>34</v>
       </c>
       <c r="CS12" s="58">
-        <v>9149339.6849999987</v>
+        <v>9837364.0350000001</v>
       </c>
       <c r="CT12" s="17"/>
       <c r="CU12" s="7"/>
@@ -10226,10 +10226,10 @@
         <v>441875</v>
       </c>
       <c r="DE12" s="61">
-        <v>706358</v>
+        <v>698184</v>
       </c>
       <c r="DF12" s="61">
-        <v>1833910</v>
+        <v>1432903</v>
       </c>
       <c r="DG12" s="61"/>
       <c r="DH12" s="61"/>
@@ -10334,14 +10334,14 @@
         <v>37</v>
       </c>
       <c r="AR13" s="56">
-        <v>5070120</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="14"/>
       <c r="AT13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="AU13" s="58">
-        <v>3235060</v>
+        <v>700000</v>
       </c>
       <c r="AV13" s="17"/>
       <c r="AW13" s="32"/>
@@ -10563,7 +10563,7 @@
         <v>41</v>
       </c>
       <c r="AR14" s="43">
-        <v>304544</v>
+        <v>214544</v>
       </c>
       <c r="AS14" s="14"/>
       <c r="AT14" s="57" t="s">
@@ -10792,14 +10792,14 @@
         <v>45</v>
       </c>
       <c r="AR15" s="64">
-        <v>282500</v>
+        <v>192500</v>
       </c>
       <c r="AS15" s="14"/>
       <c r="AT15" s="44" t="s">
         <v>46</v>
       </c>
       <c r="AU15" s="65">
-        <v>2822685</v>
+        <v>1922685</v>
       </c>
       <c r="AV15" s="17"/>
       <c r="AW15" s="7"/>
@@ -11028,7 +11028,7 @@
         <v>50</v>
       </c>
       <c r="AU16" s="66">
-        <v>3490000</v>
+        <v>2590000</v>
       </c>
       <c r="AV16" s="17"/>
       <c r="AW16" s="7"/>
@@ -11257,7 +11257,7 @@
         <v>54</v>
       </c>
       <c r="AU17" s="70">
-        <v>2617500</v>
+        <v>1942500</v>
       </c>
       <c r="AV17" s="17"/>
       <c r="AW17" s="7"/>
@@ -11479,14 +11479,14 @@
         <v>57</v>
       </c>
       <c r="AR18" s="73">
-        <v>7043456</v>
+        <v>13746656</v>
       </c>
       <c r="AS18" s="14"/>
       <c r="AT18" s="69" t="s">
         <v>58</v>
       </c>
       <c r="AU18" s="70">
-        <v>872500</v>
+        <v>647500</v>
       </c>
       <c r="AV18" s="17"/>
       <c r="AW18" s="7"/>
@@ -11603,7 +11603,7 @@
         <v>172015</v>
       </c>
       <c r="DF18" s="76">
-        <v>288461</v>
+        <v>279461</v>
       </c>
       <c r="DG18" s="76"/>
       <c r="DH18" s="76"/>
@@ -11708,7 +11708,7 @@
         <v>61</v>
       </c>
       <c r="AR19" s="56">
-        <v>250000</v>
+        <v>60000</v>
       </c>
       <c r="AS19" s="14"/>
       <c r="AT19" s="57" t="s">
@@ -11930,7 +11930,7 @@
         <v>65</v>
       </c>
       <c r="AU20" s="80">
-        <v>195198</v>
+        <v>255198</v>
       </c>
       <c r="AV20" s="17"/>
       <c r="AW20" s="7"/>
@@ -12140,14 +12140,14 @@
         <v>68</v>
       </c>
       <c r="AR21" s="56">
-        <v>283000</v>
+        <v>193000</v>
       </c>
       <c r="AS21" s="14"/>
       <c r="AT21" s="57" t="s">
         <v>69</v>
       </c>
       <c r="AU21" s="58">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="AV21" s="17"/>
       <c r="AW21" s="7"/>
@@ -12264,7 +12264,7 @@
         <v>1919852.5</v>
       </c>
       <c r="DF21" s="61">
-        <v>3494767.4999999995</v>
+        <v>3404767.5</v>
       </c>
       <c r="DG21" s="61"/>
       <c r="DH21" s="61"/>
@@ -12357,7 +12357,7 @@
         <v>70</v>
       </c>
       <c r="AR22" s="64">
-        <v>293950</v>
+        <v>459280</v>
       </c>
       <c r="AS22" s="14"/>
       <c r="AT22" s="57" t="s">
@@ -12478,10 +12478,10 @@
         <v>25718029</v>
       </c>
       <c r="DE22" s="61">
-        <v>81720045</v>
+        <v>83684485</v>
       </c>
       <c r="DF22" s="61">
-        <v>124665660</v>
+        <v>131278860</v>
       </c>
       <c r="DG22" s="61"/>
       <c r="DH22" s="61"/>
@@ -12672,7 +12672,7 @@
         <v>543.28722172178618</v>
       </c>
       <c r="DF23" s="61">
-        <v>882.12398684365087</v>
+        <v>932.50364148948665</v>
       </c>
       <c r="DG23" s="61"/>
       <c r="DH23" s="61"/>
@@ -12777,14 +12777,14 @@
         <v>73</v>
       </c>
       <c r="AR24" s="56">
-        <v>183700</v>
+        <v>349030</v>
       </c>
       <c r="AS24" s="14"/>
       <c r="AT24" s="88" t="s">
         <v>74</v>
       </c>
       <c r="AU24" s="89">
-        <v>10478393.131250001</v>
+        <v>14971008.631250001</v>
       </c>
       <c r="AV24" s="17"/>
       <c r="AW24" s="7"/>
@@ -12856,7 +12856,7 @@
         <v>74</v>
       </c>
       <c r="CI24" s="89">
-        <v>11632440.9475</v>
+        <v>12189380.447500002</v>
       </c>
       <c r="CJ24" s="17"/>
       <c r="CK24" s="7"/>
@@ -12874,7 +12874,7 @@
         <v>74</v>
       </c>
       <c r="CS24" s="89">
-        <v>12987270.734999998</v>
+        <v>13675295.084999999</v>
       </c>
       <c r="CT24" s="17"/>
       <c r="CU24" s="7"/>
@@ -12901,7 +12901,7 @@
         <v>14.518489809808296</v>
       </c>
       <c r="DF24" s="61">
-        <v>20.5260630799953</v>
+        <v>19.997459767414544</v>
       </c>
       <c r="DG24" s="61"/>
       <c r="DH24" s="61"/>
@@ -13087,10 +13087,10 @@
         <v>61.483262907902038</v>
       </c>
       <c r="DE25" s="76">
-        <v>76.90276118274285</v>
+        <v>77.274153023027182</v>
       </c>
       <c r="DF25" s="76">
-        <v>93.299170092799244</v>
+        <v>92.238157523787152</v>
       </c>
       <c r="DG25" s="76"/>
       <c r="DH25" s="76"/>
@@ -13202,7 +13202,7 @@
         <v>79</v>
       </c>
       <c r="AU26" s="65">
-        <v>940000</v>
+        <v>1020000</v>
       </c>
       <c r="AV26" s="17"/>
       <c r="AW26" s="7"/>
@@ -13417,7 +13417,7 @@
         <v>81</v>
       </c>
       <c r="AU27" s="58">
-        <v>940000</v>
+        <v>1020000</v>
       </c>
       <c r="AV27" s="17"/>
       <c r="AW27" s="7"/>
@@ -13627,7 +13627,7 @@
         <v>83</v>
       </c>
       <c r="AR28" s="43">
-        <v>5899519</v>
+        <v>12717389</v>
       </c>
       <c r="AS28" s="14"/>
       <c r="AT28" s="57" t="s">
@@ -13863,7 +13863,7 @@
         <v>87</v>
       </c>
       <c r="AU29" s="65">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="AV29" s="17"/>
       <c r="AW29" s="7"/>
@@ -13977,10 +13977,10 @@
         <v>0.11884074950000527</v>
       </c>
       <c r="DE29" s="71">
-        <v>0.29927531369394705</v>
+        <v>0.30281338086439147</v>
       </c>
       <c r="DF29" s="71">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="DG29" s="71"/>
       <c r="DH29" s="71"/>
@@ -14092,7 +14092,7 @@
         <v>90</v>
       </c>
       <c r="AU30" s="58">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="AV30" s="17"/>
       <c r="AW30" s="7"/>
@@ -14209,7 +14209,7 @@
         <v>13058750</v>
       </c>
       <c r="DF30" s="61">
-        <v>13398749</v>
+        <v>13478749</v>
       </c>
       <c r="DG30" s="61"/>
       <c r="DH30" s="61"/>
@@ -14314,14 +14314,14 @@
         <v>92</v>
       </c>
       <c r="AR31" s="73">
-        <v>5846581</v>
+        <v>12664451</v>
       </c>
       <c r="AS31" s="14"/>
       <c r="AT31" s="44" t="s">
         <v>93</v>
       </c>
       <c r="AU31" s="65">
-        <v>965000</v>
+        <v>1026000</v>
       </c>
       <c r="AV31" s="17"/>
       <c r="AW31" s="7"/>
@@ -14529,7 +14529,7 @@
         <v>95</v>
       </c>
       <c r="AR32" s="56">
-        <v>2046303.3499999999</v>
+        <v>4432557.8499999996</v>
       </c>
       <c r="AS32" s="14"/>
       <c r="AT32" s="97"/>
@@ -14734,14 +14734,14 @@
         <v>97</v>
       </c>
       <c r="AR33" s="99">
-        <v>3800277.6500000004</v>
+        <v>8231893.1500000004</v>
       </c>
       <c r="AS33" s="14"/>
       <c r="AT33" s="44" t="s">
         <v>98</v>
       </c>
       <c r="AU33" s="65">
-        <v>9513393.1312500015</v>
+        <v>13945008.631250001</v>
       </c>
       <c r="AV33" s="17"/>
       <c r="AW33" s="7"/>
@@ -14813,7 +14813,7 @@
         <v>98</v>
       </c>
       <c r="CI33" s="65">
-        <v>10505040.947500002</v>
+        <v>11061980.447500002</v>
       </c>
       <c r="CJ33" s="17"/>
       <c r="CK33" s="7"/>
@@ -14831,7 +14831,7 @@
         <v>98</v>
       </c>
       <c r="CS33" s="65">
-        <v>11859070.734999999</v>
+        <v>12547095.085000001</v>
       </c>
       <c r="CT33" s="17"/>
       <c r="CU33" s="7"/>
@@ -15349,14 +15349,14 @@
         <v>105</v>
       </c>
       <c r="AR36" s="101">
-        <v>2277880.0000000005</v>
+        <v>13961200</v>
       </c>
       <c r="AS36" s="14"/>
       <c r="AT36" s="57" t="s">
         <v>106</v>
       </c>
       <c r="AU36" s="66">
-        <v>8338393.1312500006</v>
+        <v>12770008.631250001</v>
       </c>
       <c r="AV36" s="17"/>
       <c r="AW36" s="7"/>
@@ -15428,7 +15428,7 @@
         <v>106</v>
       </c>
       <c r="CI36" s="66">
-        <v>9330040.9475000016</v>
+        <v>9886980.4475000016</v>
       </c>
       <c r="CJ36" s="17"/>
       <c r="CK36" s="7"/>
@@ -15446,7 +15446,7 @@
         <v>106</v>
       </c>
       <c r="CS36" s="66">
-        <v>10684070.734999999</v>
+        <v>11372095.085000001</v>
       </c>
       <c r="CT36" s="17"/>
       <c r="CU36" s="7"/>
@@ -15562,7 +15562,7 @@
         <v>108</v>
       </c>
       <c r="AR37" s="101">
-        <v>4510941.25</v>
+        <v>1975881.25</v>
       </c>
       <c r="AS37" s="14"/>
       <c r="AT37" s="57"/>
@@ -15618,7 +15618,7 @@
         <v>108</v>
       </c>
       <c r="CF37" s="101">
-        <v>5373862</v>
+        <v>5681442</v>
       </c>
       <c r="CG37" s="14"/>
       <c r="CH37" s="57"/>
@@ -15632,7 +15632,7 @@
         <v>108</v>
       </c>
       <c r="CP37" s="101">
-        <v>6038872.5</v>
+        <v>6418846.5</v>
       </c>
       <c r="CQ37" s="14"/>
       <c r="CR37" s="57"/>
@@ -15767,14 +15767,14 @@
         <v>110</v>
       </c>
       <c r="AR38" s="106">
-        <v>6788821.25</v>
+        <v>15937081.25</v>
       </c>
       <c r="AS38" s="14"/>
       <c r="AT38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="AU38" s="89">
-        <v>10478393.131250001</v>
+        <v>14971008.631250001</v>
       </c>
       <c r="AV38" s="17"/>
       <c r="AW38" s="7"/>
@@ -15839,14 +15839,14 @@
         <v>110</v>
       </c>
       <c r="CF38" s="106">
-        <v>5918718</v>
+        <v>6226298</v>
       </c>
       <c r="CG38" s="14"/>
       <c r="CH38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="CI38" s="89">
-        <v>11632440.947500002</v>
+        <v>12189380.447500002</v>
       </c>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="7"/>
@@ -15857,14 +15857,14 @@
         <v>110</v>
       </c>
       <c r="CP38" s="106">
-        <v>6599786.5</v>
+        <v>6979760.5</v>
       </c>
       <c r="CQ38" s="14"/>
       <c r="CR38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="CS38" s="89">
-        <v>12987270.734999999</v>
+        <v>13675295.085000001</v>
       </c>
       <c r="CT38" s="17"/>
       <c r="CU38" s="7"/>
@@ -15980,7 +15980,7 @@
         <v>41</v>
       </c>
       <c r="AR39" s="101">
-        <v>-304544</v>
+        <v>-214544</v>
       </c>
       <c r="AS39" s="14"/>
       <c r="AT39" s="14"/>
@@ -16177,7 +16177,7 @@
         <v>68</v>
       </c>
       <c r="AR40" s="101">
-        <v>-283000</v>
+        <v>-193000</v>
       </c>
       <c r="AS40" s="14"/>
       <c r="AT40" s="30" t="s">
@@ -16394,14 +16394,14 @@
         <v>70</v>
       </c>
       <c r="AR41" s="101">
-        <v>-293950</v>
+        <v>-459280</v>
       </c>
       <c r="AS41" s="14"/>
       <c r="AT41" s="112" t="s">
         <v>116</v>
       </c>
       <c r="AU41" s="113">
-        <v>8.9708411225439905E-2</v>
+        <v>6.8131682047853803E-2</v>
       </c>
       <c r="AV41" s="17"/>
       <c r="AW41" s="7"/>
@@ -16473,7 +16473,7 @@
         <v>116</v>
       </c>
       <c r="CI41" s="113">
-        <v>9.6282457401230662E-2</v>
+        <v>9.1883258941984042E-2</v>
       </c>
       <c r="CJ41" s="17"/>
       <c r="CK41" s="7"/>
@@ -16491,7 +16491,7 @@
         <v>116</v>
       </c>
       <c r="CS41" s="113">
-        <v>8.6238288463615392E-2</v>
+        <v>8.1899512444780276E-2</v>
       </c>
       <c r="CT41" s="17"/>
       <c r="CU41" s="7"/>
@@ -16609,14 +16609,14 @@
         <v>61</v>
       </c>
       <c r="AR42" s="101">
-        <v>-230000</v>
+        <v>-59000</v>
       </c>
       <c r="AS42" s="14"/>
       <c r="AT42" s="114" t="s">
         <v>117</v>
       </c>
       <c r="AU42" s="115">
-        <v>11.147226735372342</v>
+        <v>14.677459442401963</v>
       </c>
       <c r="AV42" s="17"/>
       <c r="AW42" s="7"/>
@@ -16688,7 +16688,7 @@
         <v>117</v>
       </c>
       <c r="CI42" s="115">
-        <v>10.386107988839285</v>
+        <v>10.883375399553573</v>
       </c>
       <c r="CJ42" s="17"/>
       <c r="CK42" s="7"/>
@@ -16706,7 +16706,7 @@
         <v>117</v>
       </c>
       <c r="CS42" s="115">
-        <v>11.595777441964284</v>
+        <v>12.210084897321428</v>
       </c>
       <c r="CT42" s="17"/>
       <c r="CU42" s="7"/>
@@ -16730,10 +16730,10 @@
         <v>25718029</v>
       </c>
       <c r="DE42" s="117">
-        <v>81720045</v>
+        <v>83684485</v>
       </c>
       <c r="DF42" s="117">
-        <v>124665660</v>
+        <v>131278860</v>
       </c>
       <c r="DG42" s="117"/>
       <c r="DH42" s="117"/>
@@ -16838,14 +16838,14 @@
         <v>118</v>
       </c>
       <c r="AR43" s="101">
-        <v>-15000</v>
+        <v>-20022</v>
       </c>
       <c r="AS43" s="14"/>
       <c r="AT43" s="114" t="s">
         <v>119</v>
       </c>
       <c r="AU43" s="115">
-        <v>0.7012525592388642</v>
+        <v>0.93254905824166323</v>
       </c>
       <c r="AV43" s="17"/>
       <c r="AW43" s="7"/>
@@ -16917,7 +16917,7 @@
         <v>119</v>
       </c>
       <c r="CI43" s="115">
-        <v>0.15109468493607411</v>
+        <v>0.14419108563967067</v>
       </c>
       <c r="CJ43" s="17"/>
       <c r="CK43" s="7"/>
@@ -16935,7 +16935,7 @@
         <v>119</v>
       </c>
       <c r="CS43" s="115">
-        <v>0.13932103495184436</v>
+        <v>0.13231158733712986</v>
       </c>
       <c r="CT43" s="17"/>
       <c r="CU43" s="7"/>
@@ -17076,7 +17076,7 @@
         <v>120</v>
       </c>
       <c r="AU44" s="115">
-        <v>114.59643356379161</v>
+        <v>243.38614983565679</v>
       </c>
       <c r="AV44" s="17"/>
       <c r="AW44" s="7"/>
@@ -17174,7 +17174,7 @@
       <c r="CW44" s="7"/>
       <c r="CX44" s="7"/>
       <c r="CY44" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ44" s="119" t="s">
         <v>36</v>
@@ -17307,7 +17307,7 @@
         <v>122</v>
       </c>
       <c r="AU45" s="115">
-        <v>0.52438971829069136</v>
+        <v>0.5934182699194912</v>
       </c>
       <c r="AV45" s="17"/>
       <c r="AW45" s="7"/>
@@ -17526,7 +17526,7 @@
         <v>123</v>
       </c>
       <c r="AU46" s="115">
-        <v>0.36772963198989439</v>
+        <v>0.55339164875681857</v>
       </c>
       <c r="AV46" s="17"/>
       <c r="AW46" s="7"/>
@@ -17598,7 +17598,7 @@
         <v>123</v>
       </c>
       <c r="CI46" s="115">
-        <v>2.8463039184493558E-2</v>
+        <v>2.7162547262023166E-2</v>
       </c>
       <c r="CJ46" s="17"/>
       <c r="CK46" s="7"/>
@@ -17616,7 +17616,7 @@
         <v>123</v>
       </c>
       <c r="CS46" s="115">
-        <v>2.5402340432537397E-2</v>
+        <v>2.412431106235249E-2</v>
       </c>
       <c r="CT46" s="17"/>
       <c r="CU46" s="7"/>
@@ -17624,7 +17624,7 @@
       <c r="CW46" s="7"/>
       <c r="CX46" s="7"/>
       <c r="CY46" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ46" s="119" t="s">
         <v>44</v>
@@ -17757,7 +17757,7 @@
         <v>125</v>
       </c>
       <c r="AU47" s="115">
-        <v>3.2342788510638303</v>
+        <v>7.005866510638298</v>
       </c>
       <c r="AV47" s="17"/>
       <c r="AW47" s="7"/>
@@ -17855,7 +17855,7 @@
       <c r="CW47" s="7"/>
       <c r="CX47" s="7"/>
       <c r="CY47" s="95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CZ47" s="119" t="s">
         <v>48</v>
@@ -17876,7 +17876,7 @@
         <v>5645375</v>
       </c>
       <c r="DF47" s="61">
-        <v>7348000</v>
+        <v>13961200</v>
       </c>
       <c r="DG47" s="61"/>
       <c r="DH47" s="61"/>
@@ -17916,7 +17916,7 @@
         <v>127</v>
       </c>
       <c r="G48" s="121">
-        <v>31.903762981312543</v>
+        <v>32.049060897357542</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="7"/>
@@ -17934,7 +17934,7 @@
         <v>127</v>
       </c>
       <c r="Q48" s="121">
-        <v>26.938403075480316</v>
+        <v>27.028609513404433</v>
       </c>
       <c r="R48" s="17"/>
       <c r="S48" s="7"/>
@@ -17952,7 +17952,7 @@
         <v>127</v>
       </c>
       <c r="AA48" s="121">
-        <v>21.907193085314717</v>
+        <v>21.975452449106879</v>
       </c>
       <c r="AB48" s="17"/>
       <c r="AC48" s="7"/>
@@ -17970,7 +17970,7 @@
         <v>127</v>
       </c>
       <c r="AK48" s="121">
-        <v>29.457347917011731</v>
+        <v>29.574957996096934</v>
       </c>
       <c r="AL48" s="17"/>
       <c r="AM48" s="7"/>
@@ -17981,14 +17981,14 @@
         <v>126</v>
       </c>
       <c r="AR48" s="101">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="14"/>
       <c r="AT48" s="114" t="s">
         <v>127</v>
       </c>
       <c r="AU48" s="121">
-        <v>32.953712782018364</v>
+        <v>43.659854760557224</v>
       </c>
       <c r="AV48" s="17"/>
       <c r="AW48" s="7"/>
@@ -18006,7 +18006,7 @@
         <v>127</v>
       </c>
       <c r="BE48" s="121">
-        <v>26.075917570505545</v>
+        <v>26.152435877796435</v>
       </c>
       <c r="BF48" s="17"/>
       <c r="BG48" s="7"/>
@@ -18024,7 +18024,7 @@
         <v>127</v>
       </c>
       <c r="BO48" s="121">
-        <v>23.02001155202554</v>
+        <v>23.117169072474837</v>
       </c>
       <c r="BP48" s="17"/>
       <c r="BQ48" s="7"/>
@@ -18042,7 +18042,7 @@
         <v>127</v>
       </c>
       <c r="BY48" s="121">
-        <v>26.545580942112835</v>
+        <v>26.673672462389497</v>
       </c>
       <c r="BZ48" s="17"/>
       <c r="CA48" s="7"/>
@@ -18060,7 +18060,7 @@
         <v>127</v>
       </c>
       <c r="CI48" s="121">
-        <v>415.22376570897001</v>
+        <v>446.28278100101716</v>
       </c>
       <c r="CJ48" s="17"/>
       <c r="CK48" s="7"/>
@@ -18078,7 +18078,7 @@
         <v>127</v>
       </c>
       <c r="CS48" s="121">
-        <v>461.24588732549159</v>
+        <v>498.80399561840352</v>
       </c>
       <c r="CT48" s="17"/>
       <c r="CU48" s="7"/>
@@ -18086,7 +18086,7 @@
       <c r="CW48" s="7"/>
       <c r="CX48" s="7"/>
       <c r="CY48" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ48" s="119" t="s">
         <v>52</v>
@@ -18273,7 +18273,7 @@
         <v>129</v>
       </c>
       <c r="BY49" s="123">
-        <v>4.003192576912885E-4</v>
+        <v>3.9839685640267688E-4</v>
       </c>
       <c r="BZ49" s="17"/>
       <c r="CA49" s="7"/>
@@ -18641,7 +18641,7 @@
         <v>132</v>
       </c>
       <c r="AU51" s="127">
-        <v>10453393.131250001</v>
+        <v>14965008.631250001</v>
       </c>
       <c r="AV51" s="17"/>
       <c r="AW51" s="7"/>
@@ -18713,7 +18713,7 @@
         <v>132</v>
       </c>
       <c r="CI51" s="127">
-        <v>11625040.947500002</v>
+        <v>12181980.447500002</v>
       </c>
       <c r="CJ51" s="17"/>
       <c r="CK51" s="7"/>
@@ -18731,7 +18731,7 @@
         <v>132</v>
       </c>
       <c r="CS51" s="127">
-        <v>12979070.734999999</v>
+        <v>13667095.085000001</v>
       </c>
       <c r="CT51" s="17"/>
       <c r="CU51" s="7"/>
@@ -18757,7 +18757,7 @@
         <v>1148400</v>
       </c>
       <c r="DE51" s="61">
-        <v>13621400</v>
+        <v>14500200</v>
       </c>
       <c r="DF51" s="61">
         <v>1757600</v>
@@ -18865,14 +18865,14 @@
         <v>95</v>
       </c>
       <c r="AR52" s="101">
-        <v>-2046303.3499999999</v>
+        <v>-4432557.8499999996</v>
       </c>
       <c r="AS52" s="14"/>
       <c r="AT52" s="128" t="s">
         <v>133</v>
       </c>
       <c r="AU52" s="129">
-        <v>3720277.6500000013</v>
+        <v>8231893.1500000013</v>
       </c>
       <c r="AV52" s="17"/>
       <c r="AW52" s="7"/>
@@ -18988,7 +18988,7 @@
         <v>1164300</v>
       </c>
       <c r="DE52" s="76">
-        <v>15470370</v>
+        <v>16556010</v>
       </c>
       <c r="DF52" s="76">
         <v>1809400</v>
@@ -19096,14 +19096,14 @@
         <v>134</v>
       </c>
       <c r="AR53" s="101">
-        <v>0</v>
+        <v>-54978</v>
       </c>
       <c r="AS53" s="14"/>
       <c r="AT53" s="132" t="s">
         <v>135</v>
       </c>
       <c r="AU53" s="133">
-        <v>3487485.4624999999</v>
+        <v>9551275.6624999996</v>
       </c>
       <c r="AV53" s="17"/>
       <c r="AW53" s="7"/>
@@ -19175,7 +19175,7 @@
         <v>135</v>
       </c>
       <c r="CI53" s="133">
-        <v>3015476.5225000004</v>
+        <v>3215403.5225000004</v>
       </c>
       <c r="CJ53" s="17"/>
       <c r="CK53" s="7"/>
@@ -19193,7 +19193,7 @@
         <v>135</v>
       </c>
       <c r="CS53" s="133">
-        <v>3423313.4974999996</v>
+        <v>3670296.5974999997</v>
       </c>
       <c r="CT53" s="17"/>
       <c r="CU53" s="7"/>
@@ -19311,14 +19311,14 @@
         <v>136</v>
       </c>
       <c r="AR54" s="101">
-        <v>-1353035</v>
+        <v>-453035</v>
       </c>
       <c r="AS54" s="14"/>
       <c r="AT54" s="137" t="s">
         <v>137</v>
       </c>
       <c r="AU54" s="138">
-        <v>875133.94864796719</v>
+        <v>2251156.8807310578</v>
       </c>
       <c r="AV54" s="17"/>
       <c r="AW54" s="7"/>
@@ -19390,7 +19390,7 @@
         <v>137</v>
       </c>
       <c r="CI54" s="138">
-        <v>1319077.4532464941</v>
+        <v>1415209.1900259154</v>
       </c>
       <c r="CJ54" s="17"/>
       <c r="CK54" s="7"/>
@@ -19408,7 +19408,7 @@
         <v>137</v>
       </c>
       <c r="CS54" s="138">
-        <v>1514142.3315225437</v>
+        <v>1632847.8339325448</v>
       </c>
       <c r="CT54" s="17"/>
       <c r="CU54" s="7"/>
@@ -19535,7 +19535,7 @@
         <v>140</v>
       </c>
       <c r="AU55" s="129">
-        <v>940000</v>
+        <v>1020000</v>
       </c>
       <c r="AV55" s="17"/>
       <c r="AW55" s="7"/>
@@ -19993,7 +19993,7 @@
         <v>143</v>
       </c>
       <c r="AU57" s="145">
-        <v>940000</v>
+        <v>1020000</v>
       </c>
       <c r="AV57" s="17"/>
       <c r="AW57" s="7"/>
@@ -20203,14 +20203,14 @@
         <v>144</v>
       </c>
       <c r="AR58" s="106">
-        <v>1833085.9000000004</v>
+        <v>9700761.4000000004</v>
       </c>
       <c r="AS58" s="14"/>
       <c r="AT58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="AU58" s="147">
-        <v>0.33360000000000001</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="AV58" s="17"/>
       <c r="AW58" s="7"/>
@@ -20275,14 +20275,14 @@
         <v>144</v>
       </c>
       <c r="CF58" s="106">
-        <v>3953374.3725000001</v>
+        <v>4260954.3725000005</v>
       </c>
       <c r="CG58" s="14"/>
       <c r="CH58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="CI58" s="147">
-        <v>0.25929999999999997</v>
+        <v>0.26390000000000002</v>
       </c>
       <c r="CJ58" s="17"/>
       <c r="CK58" s="7"/>
@@ -20293,14 +20293,14 @@
         <v>144</v>
       </c>
       <c r="CP58" s="106">
-        <v>4554242.0225</v>
+        <v>4934216.0225</v>
       </c>
       <c r="CQ58" s="14"/>
       <c r="CR58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="CS58" s="147">
-        <v>0.26369999999999999</v>
+        <v>0.26850000000000002</v>
       </c>
       <c r="CT58" s="17"/>
       <c r="CU58" s="7"/>
@@ -20367,7 +20367,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="149">
-        <v>7.417933848184384E-2</v>
+        <v>7.3896570576427817E-2</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="7"/>
@@ -20385,7 +20385,7 @@
         <v>27</v>
       </c>
       <c r="Q59" s="149">
-        <v>6.6804076486978711E-2</v>
+        <v>6.6613873227691994E-2</v>
       </c>
       <c r="R59" s="17"/>
       <c r="S59" s="7"/>
@@ -20403,7 +20403,7 @@
         <v>27</v>
       </c>
       <c r="AA59" s="149">
-        <v>6.7669707136064738E-2</v>
+        <v>6.7466211180538929E-2</v>
       </c>
       <c r="AB59" s="17"/>
       <c r="AC59" s="7"/>
@@ -20421,7 +20421,7 @@
         <v>27</v>
       </c>
       <c r="AK59" s="149">
-        <v>7.0343745931463239E-2</v>
+        <v>7.0106206147441411E-2</v>
       </c>
       <c r="AL59" s="17"/>
       <c r="AM59" s="7"/>
@@ -20439,7 +20439,7 @@
         <v>27</v>
       </c>
       <c r="AU59" s="149">
-        <v>6.9439618356947549E-2</v>
+        <v>6.9216855082295387E-2</v>
       </c>
       <c r="AV59" s="17"/>
       <c r="AW59" s="7"/>
@@ -20457,7 +20457,7 @@
         <v>27</v>
       </c>
       <c r="BE59" s="149">
-        <v>6.4224036587540431E-2</v>
+        <v>6.4064239870485803E-2</v>
       </c>
       <c r="BF59" s="17"/>
       <c r="BG59" s="7"/>
@@ -20475,7 +20475,7 @@
         <v>27</v>
       </c>
       <c r="BO59" s="149">
-        <v>7.1893669695719212E-2</v>
+        <v>7.1638029879665527E-2</v>
       </c>
       <c r="BP59" s="17"/>
       <c r="BQ59" s="7"/>
@@ -20493,7 +20493,7 @@
         <v>27</v>
       </c>
       <c r="BY59" s="149">
-        <v>7.700263189719124E-2</v>
+        <v>7.6686962151627777E-2</v>
       </c>
       <c r="BZ59" s="17"/>
       <c r="CA59" s="7"/>
@@ -20511,7 +20511,7 @@
         <v>27</v>
       </c>
       <c r="CI59" s="149">
-        <v>7.7075663301588881E-2</v>
+        <v>7.73722070171909E-2</v>
       </c>
       <c r="CJ59" s="17"/>
       <c r="CK59" s="7"/>
@@ -20529,7 +20529,7 @@
         <v>27</v>
       </c>
       <c r="CS59" s="149">
-        <v>7.8110926894308222E-2</v>
+        <v>7.841506352421275E-2</v>
       </c>
       <c r="CT59" s="17"/>
       <c r="CU59" s="7"/>
@@ -20556,7 +20556,7 @@
         <v>475</v>
       </c>
       <c r="DF59" s="61">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="DG59" s="61"/>
       <c r="DH59" s="61"/>
@@ -20577,10 +20577,10 @@
         <v>0.41349999999999998</v>
       </c>
       <c r="DQ59" s="53">
-        <v>7.417933848184384E-2</v>
+        <v>7.3896570576427817E-2</v>
       </c>
       <c r="DR59" s="54">
-        <v>0.33932066151815615</v>
+        <v>0.33960342942357213</v>
       </c>
     </row>
     <row r="60" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20668,7 +20668,7 @@
         <v>147</v>
       </c>
       <c r="AU60" s="70">
-        <v>-232792.1875000014</v>
+        <v>1319382.5124999983</v>
       </c>
       <c r="AV60" s="17"/>
       <c r="AW60" s="7"/>
@@ -20740,7 +20740,7 @@
         <v>147</v>
       </c>
       <c r="CI60" s="70">
-        <v>2742509.9</v>
+        <v>2942436.9</v>
       </c>
       <c r="CJ60" s="17"/>
       <c r="CK60" s="7"/>
@@ -20758,7 +20758,7 @@
         <v>147</v>
       </c>
       <c r="CS60" s="70">
-        <v>3151534.4249999998</v>
+        <v>3398517.5249999999</v>
       </c>
       <c r="CT60" s="17"/>
       <c r="CU60" s="7"/>
@@ -20806,10 +20806,10 @@
         <v>0.30330000000000001</v>
       </c>
       <c r="DQ60" s="53">
-        <v>6.6804076486978711E-2</v>
+        <v>6.6613873227691994E-2</v>
       </c>
       <c r="DR60" s="54">
-        <v>0.23649592351302129</v>
+        <v>0.23668612677230802</v>
       </c>
     </row>
     <row r="61" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -20825,7 +20825,7 @@
         <v>24</v>
       </c>
       <c r="G61" s="150">
-        <v>2200327.6783303246</v>
+        <v>2203383.2722184472</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="7"/>
@@ -20843,7 +20843,7 @@
         <v>24</v>
       </c>
       <c r="Q61" s="150">
-        <v>3415732.4257783666</v>
+        <v>3418173.9642719193</v>
       </c>
       <c r="R61" s="17"/>
       <c r="S61" s="7"/>
@@ -20861,7 +20861,7 @@
         <v>24</v>
       </c>
       <c r="AA61" s="150">
-        <v>1999435.2390475289</v>
+        <v>2001033.7795587736</v>
       </c>
       <c r="AB61" s="17"/>
       <c r="AC61" s="7"/>
@@ -20879,7 +20879,7 @@
         <v>24</v>
       </c>
       <c r="AK61" s="150">
-        <v>4585312.0111815892</v>
+        <v>4588705.6014637602</v>
       </c>
       <c r="AL61" s="17"/>
       <c r="AM61" s="7"/>
@@ -20897,7 +20897,7 @@
         <v>24</v>
       </c>
       <c r="AU61" s="150">
-        <v>2761372.3190158634</v>
+        <v>8514837.6747292206</v>
       </c>
       <c r="AV61" s="17"/>
       <c r="AW61" s="7"/>
@@ -20915,7 +20915,7 @@
         <v>24</v>
       </c>
       <c r="BE61" s="150">
-        <v>3306650.6831659679</v>
+        <v>3308515.9735254152</v>
       </c>
       <c r="BF61" s="17"/>
       <c r="BG61" s="7"/>
@@ -20933,7 +20933,7 @@
         <v>24</v>
       </c>
       <c r="BO61" s="150">
-        <v>14868079.917404663</v>
+        <v>14878105.793818031</v>
       </c>
       <c r="BP61" s="17"/>
       <c r="BQ61" s="7"/>
@@ -20951,7 +20951,7 @@
         <v>24</v>
       </c>
       <c r="BY61" s="150">
-        <v>12216941.359490929</v>
+        <v>12226470.748793839</v>
       </c>
       <c r="BZ61" s="17"/>
       <c r="CA61" s="7"/>
@@ -20969,7 +20969,7 @@
         <v>24</v>
       </c>
       <c r="CI61" s="150">
-        <v>2118365.375750056</v>
+        <v>2272277.9270319091</v>
       </c>
       <c r="CJ61" s="17"/>
       <c r="CK61" s="7"/>
@@ -20987,7 +20987,7 @@
         <v>24</v>
       </c>
       <c r="CS61" s="150">
-        <v>2408773.7074818597</v>
+        <v>2597908.9010407696</v>
       </c>
       <c r="CT61" s="17"/>
       <c r="CU61" s="7"/>
@@ -21035,10 +21035,10 @@
         <v>0.33429999999999999</v>
       </c>
       <c r="DQ61" s="53">
-        <v>6.7669707136064738E-2</v>
+        <v>6.7466211180538929E-2</v>
       </c>
       <c r="DR61" s="54">
-        <v>0.26663029286393525</v>
+        <v>0.26683378881946107</v>
       </c>
     </row>
     <row r="62" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21054,7 +21054,7 @@
         <v>150</v>
       </c>
       <c r="G62" s="65">
-        <v>93392933.413810149</v>
+        <v>93818268.776485205</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="7"/>
@@ -21072,7 +21072,7 @@
         <v>150</v>
       </c>
       <c r="Q62" s="65">
-        <v>136824156.30782199</v>
+        <v>137282328.22424623</v>
       </c>
       <c r="R62" s="17"/>
       <c r="S62" s="7"/>
@@ -21090,7 +21090,7 @@
         <v>150</v>
       </c>
       <c r="AA62" s="65">
-        <v>51373495.457827076</v>
+        <v>51533567.179570451</v>
       </c>
       <c r="AB62" s="17"/>
       <c r="AC62" s="7"/>
@@ -21108,7 +21108,7 @@
         <v>150</v>
       </c>
       <c r="AK62" s="65">
-        <v>199376010.30989915</v>
+        <v>200172029.97895762</v>
       </c>
       <c r="AL62" s="17"/>
       <c r="AM62" s="7"/>
@@ -21119,14 +21119,14 @@
         <v>149</v>
       </c>
       <c r="AR62" s="152">
-        <v>1833085.9000000004</v>
+        <v>9700761.4000000004</v>
       </c>
       <c r="AS62" s="14"/>
       <c r="AT62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="AU62" s="65">
-        <v>125233258.17002374</v>
+        <v>359403259.33342594</v>
       </c>
       <c r="AV62" s="17"/>
       <c r="AW62" s="7"/>
@@ -21144,7 +21144,7 @@
         <v>150</v>
       </c>
       <c r="BE62" s="65">
-        <v>133666689.98985428</v>
+        <v>134058927.34186864</v>
       </c>
       <c r="BF62" s="17"/>
       <c r="BG62" s="7"/>
@@ -21162,7 +21162,7 @@
         <v>150</v>
       </c>
       <c r="BO62" s="65">
-        <v>569729250.02870989</v>
+        <v>572133830.97929406</v>
       </c>
       <c r="BP62" s="17"/>
       <c r="BQ62" s="7"/>
@@ -21180,7 +21180,7 @@
         <v>150</v>
       </c>
       <c r="BY62" s="65">
-        <v>499601246.148974</v>
+        <v>502011993.28202367</v>
       </c>
       <c r="BZ62" s="17"/>
       <c r="CA62" s="7"/>
@@ -21191,14 +21191,14 @@
         <v>149</v>
       </c>
       <c r="CF62" s="152">
-        <v>3953374.3725000001</v>
+        <v>4260954.3725000005</v>
       </c>
       <c r="CG62" s="14"/>
       <c r="CH62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="CI62" s="65">
-        <v>113342228.9073088</v>
+        <v>121820303.40975477</v>
       </c>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="7"/>
@@ -21209,14 +21209,14 @@
         <v>149</v>
       </c>
       <c r="CP62" s="152">
-        <v>4554242.0225</v>
+        <v>4934216.0225</v>
       </c>
       <c r="CQ62" s="14"/>
       <c r="CR62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="CS62" s="65">
-        <v>125356979.45176168</v>
+        <v>135564487.28846383</v>
       </c>
       <c r="CT62" s="17"/>
       <c r="CU62" s="154"/>
@@ -21264,10 +21264,10 @@
         <v>0.3347</v>
       </c>
       <c r="DQ62" s="53">
-        <v>7.0343745931463239E-2</v>
+        <v>7.0106206147441411E-2</v>
       </c>
       <c r="DR62" s="54">
-        <v>0.26435625406853674</v>
+        <v>0.2645937938525586</v>
       </c>
     </row>
     <row r="63" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21283,7 +21283,7 @@
         <v>152</v>
       </c>
       <c r="G63" s="158">
-        <v>95412933.413810149</v>
+        <v>95838268.776485205</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="7"/>
@@ -21301,7 +21301,7 @@
         <v>152</v>
       </c>
       <c r="Q63" s="158">
-        <v>137719156.30782199</v>
+        <v>138177328.22424623</v>
       </c>
       <c r="R63" s="17"/>
       <c r="S63" s="7"/>
@@ -21319,7 +21319,7 @@
         <v>152</v>
       </c>
       <c r="AA63" s="158">
-        <v>52393494.457827076</v>
+        <v>52553566.179570451</v>
       </c>
       <c r="AB63" s="17"/>
       <c r="AC63" s="7"/>
@@ -21337,7 +21337,7 @@
         <v>152</v>
       </c>
       <c r="AK63" s="158">
-        <v>201116010.30989915</v>
+        <v>201912029.97895762</v>
       </c>
       <c r="AL63" s="17"/>
       <c r="AM63" s="7"/>
@@ -21355,7 +21355,7 @@
         <v>152</v>
       </c>
       <c r="AU63" s="158">
-        <v>126173258.17002374</v>
+        <v>360423259.33342594</v>
       </c>
       <c r="AV63" s="17"/>
       <c r="AW63" s="7"/>
@@ -21373,7 +21373,7 @@
         <v>152</v>
       </c>
       <c r="BE63" s="158">
-        <v>134686689.98985428</v>
+        <v>135078927.34186864</v>
       </c>
       <c r="BF63" s="17"/>
       <c r="BG63" s="7"/>
@@ -21391,7 +21391,7 @@
         <v>152</v>
       </c>
       <c r="BO63" s="158">
-        <v>572233000.02870989</v>
+        <v>574637580.97929406</v>
       </c>
       <c r="BP63" s="17"/>
       <c r="BQ63" s="7"/>
@@ -21409,7 +21409,7 @@
         <v>152</v>
       </c>
       <c r="BY63" s="158">
-        <v>500621246.148974</v>
+        <v>503031993.28202367</v>
       </c>
       <c r="BZ63" s="17"/>
       <c r="CA63" s="7"/>
@@ -21420,14 +21420,14 @@
         <v>151</v>
       </c>
       <c r="CF63" s="156">
-        <v>3954086.8250000002</v>
+        <v>4203446.3250000002</v>
       </c>
       <c r="CG63" s="14"/>
       <c r="CH63" s="157" t="s">
         <v>152</v>
       </c>
       <c r="CI63" s="158">
-        <v>114462228.9073088</v>
+        <v>122940303.40975477</v>
       </c>
       <c r="CJ63" s="17"/>
       <c r="CK63" s="7"/>
@@ -21438,14 +21438,14 @@
         <v>151</v>
       </c>
       <c r="CP63" s="156">
-        <v>4595097.6624999996</v>
+        <v>4903148.0125000011</v>
       </c>
       <c r="CQ63" s="14"/>
       <c r="CR63" s="157" t="s">
         <v>152</v>
       </c>
       <c r="CS63" s="158">
-        <v>126476979.45176168</v>
+        <v>136684487.28846383</v>
       </c>
       <c r="CT63" s="17"/>
       <c r="CU63" s="7"/>
@@ -21469,10 +21469,10 @@
         <v>100</v>
       </c>
       <c r="DE63" s="61">
-        <v>775</v>
+        <v>825</v>
       </c>
       <c r="DF63" s="61">
-        <v>775</v>
+        <v>825</v>
       </c>
       <c r="DG63" s="61"/>
       <c r="DH63" s="61"/>
@@ -21493,10 +21493,10 @@
         <v>0.34010000000000001</v>
       </c>
       <c r="DQ63" s="53">
-        <v>6.9439618356947549E-2</v>
+        <v>6.9216855082295387E-2</v>
       </c>
       <c r="DR63" s="54">
-        <v>0.27066038164305245</v>
+        <v>0.2708831449177046</v>
       </c>
     </row>
     <row r="64" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21512,7 +21512,7 @@
         <v>154</v>
       </c>
       <c r="G64" s="160">
-        <v>95412933.413810149</v>
+        <v>95838268.776485205</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="7"/>
@@ -21530,7 +21530,7 @@
         <v>154</v>
       </c>
       <c r="Q64" s="160">
-        <v>137719156.30782199</v>
+        <v>138177328.22424623</v>
       </c>
       <c r="R64" s="17"/>
       <c r="S64" s="7"/>
@@ -21548,7 +21548,7 @@
         <v>154</v>
       </c>
       <c r="AA64" s="160">
-        <v>52393494.457827076</v>
+        <v>52553566.179570451</v>
       </c>
       <c r="AB64" s="17"/>
       <c r="AC64" s="7"/>
@@ -21566,7 +21566,7 @@
         <v>154</v>
       </c>
       <c r="AK64" s="160">
-        <v>201116010.30989915</v>
+        <v>201912029.97895762</v>
       </c>
       <c r="AL64" s="17"/>
       <c r="AM64" s="7"/>
@@ -21577,14 +21577,14 @@
         <v>153</v>
       </c>
       <c r="AR64" s="106">
-        <v>4225450.1312500006</v>
+        <v>12093125.631250001</v>
       </c>
       <c r="AS64" s="14"/>
       <c r="AT64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="AU64" s="160">
-        <v>126173258.17002374</v>
+        <v>360423259.33342594</v>
       </c>
       <c r="AV64" s="17"/>
       <c r="AW64" s="7"/>
@@ -21602,7 +21602,7 @@
         <v>154</v>
       </c>
       <c r="BE64" s="160">
-        <v>134686689.98985428</v>
+        <v>135078927.34186864</v>
       </c>
       <c r="BF64" s="17"/>
       <c r="BG64" s="7"/>
@@ -21620,7 +21620,7 @@
         <v>154</v>
       </c>
       <c r="BO64" s="160">
-        <v>572233000.02870989</v>
+        <v>574637580.97929406</v>
       </c>
       <c r="BP64" s="17"/>
       <c r="BQ64" s="7"/>
@@ -21638,7 +21638,7 @@
         <v>154</v>
       </c>
       <c r="BY64" s="160">
-        <v>500621246.148974</v>
+        <v>503031993.28202367</v>
       </c>
       <c r="BZ64" s="17"/>
       <c r="CA64" s="7"/>
@@ -21649,14 +21649,14 @@
         <v>153</v>
       </c>
       <c r="CF64" s="106">
-        <v>7907461.1974999998</v>
+        <v>8464400.6975000016</v>
       </c>
       <c r="CG64" s="14"/>
       <c r="CH64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="CI64" s="160">
-        <v>114462228.9073088</v>
+        <v>122940303.40975477</v>
       </c>
       <c r="CJ64" s="17"/>
       <c r="CK64" s="7"/>
@@ -21667,14 +21667,14 @@
         <v>153</v>
       </c>
       <c r="CP64" s="106">
-        <v>9149339.6849999987</v>
+        <v>9837364.0350000001</v>
       </c>
       <c r="CQ64" s="14"/>
       <c r="CR64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="CS64" s="160">
-        <v>126476979.45176168</v>
+        <v>136684487.28846383</v>
       </c>
       <c r="CT64" s="17"/>
       <c r="CU64" s="7"/>
@@ -21698,10 +21698,10 @@
         <v>100</v>
       </c>
       <c r="DE64" s="76">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="DF64" s="76">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="DG64" s="76"/>
       <c r="DH64" s="76"/>
@@ -21722,10 +21722,10 @@
         <v>0.26679999999999998</v>
       </c>
       <c r="DQ64" s="53">
-        <v>6.4224036587540431E-2</v>
+        <v>6.4064239870485803E-2</v>
       </c>
       <c r="DR64" s="54">
-        <v>0.20257596341245954</v>
+        <v>0.20273576012951416</v>
       </c>
     </row>
     <row r="65" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21897,10 +21897,10 @@
         <v>0.32879999999999998</v>
       </c>
       <c r="DQ65" s="53">
-        <v>7.1893669695719212E-2</v>
+        <v>7.1638029879665527E-2</v>
       </c>
       <c r="DR65" s="54">
-        <v>0.25690633030428078</v>
+        <v>0.25716197012033448</v>
       </c>
     </row>
     <row r="66" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21914,7 +21914,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="129">
-        <v>79.483347586221399</v>
+        <v>79.84533512892358</v>
       </c>
       <c r="H66" s="161"/>
       <c r="I66" s="7"/>
@@ -21930,7 +21930,7 @@
         <v>157</v>
       </c>
       <c r="Q66" s="129">
-        <v>116.44609047474212</v>
+        <v>116.83602402063509</v>
       </c>
       <c r="R66" s="161"/>
       <c r="S66" s="7"/>
@@ -21946,7 +21946,7 @@
         <v>157</v>
       </c>
       <c r="AA66" s="129">
-        <v>43.722123793895385</v>
+        <v>43.858355046442938</v>
       </c>
       <c r="AB66" s="161"/>
       <c r="AC66" s="7"/>
@@ -21962,7 +21962,7 @@
         <v>157</v>
       </c>
       <c r="AK66" s="129">
-        <v>162.75592678359115</v>
+        <v>163.40573875833275</v>
       </c>
       <c r="AL66" s="161"/>
       <c r="AM66" s="7"/>
@@ -21978,7 +21978,7 @@
         <v>157</v>
       </c>
       <c r="AU66" s="129">
-        <v>106.58149631491382</v>
+        <v>305.87511432631993</v>
       </c>
       <c r="AV66" s="161"/>
       <c r="AW66" s="7"/>
@@ -21994,7 +21994,7 @@
         <v>157</v>
       </c>
       <c r="BE66" s="129">
-        <v>113.75888509774832</v>
+        <v>114.09270412073927</v>
       </c>
       <c r="BF66" s="161"/>
       <c r="BG66" s="7"/>
@@ -22010,7 +22010,7 @@
         <v>157</v>
       </c>
       <c r="BO66" s="129">
-        <v>484.87595747124249</v>
+        <v>486.92240934408005</v>
       </c>
       <c r="BP66" s="161"/>
       <c r="BQ66" s="7"/>
@@ -22026,7 +22026,7 @@
         <v>157</v>
       </c>
       <c r="BY66" s="129">
-        <v>425.19254991402045</v>
+        <v>427.24424960172229</v>
       </c>
       <c r="BZ66" s="161"/>
       <c r="CA66" s="7"/>
@@ -22042,7 +22042,7 @@
         <v>157</v>
       </c>
       <c r="CI66" s="129">
-        <v>96.461471410475582</v>
+        <v>103.67685396574873</v>
       </c>
       <c r="CJ66" s="161"/>
       <c r="CK66" s="7"/>
@@ -22058,7 +22058,7 @@
         <v>157</v>
       </c>
       <c r="CS66" s="129">
-        <v>106.68679102277589</v>
+        <v>115.37403173486284</v>
       </c>
       <c r="CT66" s="161"/>
       <c r="CU66" s="7"/>
@@ -22106,10 +22106,10 @@
         <v>0.44740000000000002</v>
       </c>
       <c r="DQ66" s="53">
-        <v>7.700263189719124E-2</v>
+        <v>7.6686962151627777E-2</v>
       </c>
       <c r="DR66" s="54">
-        <v>0.37039736810280877</v>
+        <v>0.37071303784837223</v>
       </c>
     </row>
     <row r="67" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -22190,7 +22190,7 @@
         <v>159</v>
       </c>
       <c r="AR67" s="165">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="AS67" s="14"/>
       <c r="AT67" s="128" t="s">
@@ -22262,7 +22262,7 @@
         <v>159</v>
       </c>
       <c r="CF67" s="165">
-        <v>775</v>
+        <v>825</v>
       </c>
       <c r="CG67" s="14"/>
       <c r="CH67" s="128" t="s">
@@ -22280,7 +22280,7 @@
         <v>159</v>
       </c>
       <c r="CP67" s="165">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="CQ67" s="14"/>
       <c r="CR67" s="128" t="s">
@@ -22328,19 +22328,19 @@
         <v>63</v>
       </c>
       <c r="DN67" s="51">
-        <v>4302584.8957567103</v>
+        <v>4614898.8803835269</v>
       </c>
       <c r="DO67" s="52">
-        <v>79644719.088804409</v>
+        <v>79111125.416961238</v>
       </c>
       <c r="DP67" s="53">
-        <v>0.4612</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="DQ67" s="53">
-        <v>7.7075663301588881E-2</v>
+        <v>7.73722070171909E-2</v>
       </c>
       <c r="DR67" s="54">
-        <v>0.38412433669841112</v>
+        <v>0.39232779298280912</v>
       </c>
     </row>
     <row r="68" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22356,7 +22356,7 @@
         <v>161</v>
       </c>
       <c r="G68" s="170">
-        <v>7.4941763563405914E-2</v>
+        <v>7.4653678685393882E-2</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="7"/>
@@ -22374,7 +22374,7 @@
         <v>161</v>
       </c>
       <c r="Q68" s="170">
-        <v>6.737364019672766E-2</v>
+        <v>6.7180177498605192E-2</v>
       </c>
       <c r="R68" s="17"/>
       <c r="S68" s="7"/>
@@ -22392,7 +22392,7 @@
         <v>161</v>
       </c>
       <c r="AA68" s="170">
-        <v>6.8638993966473827E-2</v>
+        <v>6.8429710895687779E-2</v>
       </c>
       <c r="AB68" s="17"/>
       <c r="AC68" s="7"/>
@@ -22410,7 +22410,7 @@
         <v>161</v>
       </c>
       <c r="AK68" s="170">
-        <v>7.1495195868949424E-2</v>
+        <v>7.1250202485695829E-2</v>
       </c>
       <c r="AL68" s="17"/>
       <c r="AM68" s="7"/>
@@ -22421,14 +22421,14 @@
         <v>61</v>
       </c>
       <c r="AR68" s="168">
-        <v>250000</v>
+        <v>60000</v>
       </c>
       <c r="AS68" s="14"/>
       <c r="AT68" s="169" t="s">
         <v>161</v>
       </c>
       <c r="AU68" s="170">
-        <v>6.9991358558463571E-2</v>
+        <v>6.9765167242462733E-2</v>
       </c>
       <c r="AV68" s="17"/>
       <c r="AW68" s="7"/>
@@ -22446,7 +22446,7 @@
         <v>161</v>
       </c>
       <c r="BE68" s="170">
-        <v>6.5007978848517167E-2</v>
+        <v>6.4844093368260053E-2</v>
       </c>
       <c r="BF68" s="17"/>
       <c r="BG68" s="7"/>
@@ -22464,7 +22464,7 @@
         <v>161</v>
       </c>
       <c r="BO68" s="170">
-        <v>7.2867845220158795E-2</v>
+        <v>7.2605689976884893E-2</v>
       </c>
       <c r="BP68" s="17"/>
       <c r="BQ68" s="7"/>
@@ -22482,7 +22482,7 @@
         <v>161</v>
       </c>
       <c r="BY68" s="170">
-        <v>7.7350183812357406E-2</v>
+        <v>7.703198711361986E-2</v>
       </c>
       <c r="BZ68" s="17"/>
       <c r="CA68" s="7"/>
@@ -22500,7 +22500,7 @@
         <v>161</v>
       </c>
       <c r="CI68" s="170">
-        <v>7.775365366671437E-2</v>
+        <v>7.8059498140590905E-2</v>
       </c>
       <c r="CJ68" s="17"/>
       <c r="CK68" s="7"/>
@@ -22518,7 +22518,7 @@
         <v>161</v>
       </c>
       <c r="CS68" s="170">
-        <v>7.8678308998046162E-2</v>
+        <v>7.8991400322225749E-2</v>
       </c>
       <c r="CT68" s="17"/>
       <c r="CU68" s="7"/>
@@ -22559,19 +22559,19 @@
         <v>67</v>
       </c>
       <c r="DN68" s="82">
-        <v>5004402.805726558</v>
+        <v>5393240.2676046789</v>
       </c>
       <c r="DO68" s="83">
-        <v>97164023.269159377</v>
+        <v>96318702.009391814</v>
       </c>
       <c r="DP68" s="84">
-        <v>0.47010000000000002</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="DQ68" s="84">
-        <v>7.8110926894308222E-2</v>
+        <v>7.841506352421275E-2</v>
       </c>
       <c r="DR68" s="85">
-        <v>0.39198907310569181</v>
+        <v>0.40048493647578726</v>
       </c>
     </row>
     <row r="69" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22652,7 +22652,7 @@
         <v>162</v>
       </c>
       <c r="AR69" s="168">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="AS69" s="14"/>
       <c r="AT69" s="171" t="s">
@@ -23102,14 +23102,14 @@
         <v>166</v>
       </c>
       <c r="AR71" s="168">
-        <v>1500000</v>
+        <v>600000</v>
       </c>
       <c r="AS71" s="14"/>
       <c r="AT71" s="176" t="s">
         <v>167</v>
       </c>
       <c r="AU71" s="177">
-        <v>8253794.8484375002</v>
+        <v>11577506.473437501</v>
       </c>
       <c r="AV71" s="17"/>
       <c r="AW71" s="7"/>
@@ -23181,7 +23181,7 @@
         <v>167</v>
       </c>
       <c r="CI71" s="177">
-        <v>8997530.7106250003</v>
+        <v>9415235.3356250003</v>
       </c>
       <c r="CJ71" s="17"/>
       <c r="CK71" s="7"/>
@@ -23199,7 +23199,7 @@
         <v>167</v>
       </c>
       <c r="CS71" s="177">
-        <v>10013053.05125</v>
+        <v>10529071.313750001</v>
       </c>
       <c r="CT71" s="17"/>
       <c r="CU71" s="7"/>
@@ -23240,19 +23240,19 @@
         <v>32</v>
       </c>
       <c r="DN71" s="51">
-        <v>2200327.6783303246</v>
+        <v>2203383.2722184472</v>
       </c>
       <c r="DO71" s="52">
-        <v>95412933.413810149</v>
+        <v>95838268.776485205</v>
       </c>
       <c r="DP71" s="53">
         <v>0.27779999999999999</v>
       </c>
       <c r="DQ71" s="53">
-        <v>7.0449759787082539E-2</v>
+        <v>6.9463161293880873E-2</v>
       </c>
       <c r="DR71" s="54">
-        <v>0.20735024021291745</v>
+        <v>0.20833683870611913</v>
       </c>
     </row>
     <row r="72" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23333,7 +23333,7 @@
         <v>168</v>
       </c>
       <c r="AR72" s="178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS72" s="14"/>
       <c r="AT72" s="179" t="s">
@@ -23471,19 +23471,19 @@
         <v>36</v>
       </c>
       <c r="DN72" s="51">
-        <v>3415732.4257783666</v>
+        <v>3418173.9642719193</v>
       </c>
       <c r="DO72" s="52">
-        <v>137719156.30782199</v>
+        <v>138177328.22424623</v>
       </c>
       <c r="DP72" s="53">
         <v>0.33289999999999997</v>
       </c>
       <c r="DQ72" s="53">
-        <v>6.7904822299607037E-2</v>
+        <v>6.7069650867255304E-2</v>
       </c>
       <c r="DR72" s="54">
-        <v>0.26499517770039294</v>
+        <v>0.26583034913274467</v>
       </c>
     </row>
     <row r="73" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23702,19 +23702,19 @@
         <v>40</v>
       </c>
       <c r="DN73" s="51">
-        <v>1999435.2390475289</v>
+        <v>2001033.7795587736</v>
       </c>
       <c r="DO73" s="52">
-        <v>52393494.457827076</v>
+        <v>52553566.179570451</v>
       </c>
       <c r="DP73" s="53">
         <v>0.32219999999999999</v>
       </c>
       <c r="DQ73" s="53">
-        <v>6.8741110340340306E-2</v>
+        <v>6.7849182700351729E-2</v>
       </c>
       <c r="DR73" s="54">
-        <v>0.25345888965965968</v>
+        <v>0.25435081729964826</v>
       </c>
     </row>
     <row r="74" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -23893,19 +23893,19 @@
         <v>44</v>
       </c>
       <c r="DN74" s="51">
-        <v>4585312.0111815892</v>
+        <v>4588705.6014637602</v>
       </c>
       <c r="DO74" s="52">
-        <v>201116010.30989915</v>
+        <v>201912029.97895762</v>
       </c>
       <c r="DP74" s="53">
         <v>0.39129999999999998</v>
       </c>
       <c r="DQ74" s="53">
-        <v>7.4302431349840048E-2</v>
+        <v>7.3122970285415381E-2</v>
       </c>
       <c r="DR74" s="54">
-        <v>0.31699756865015993</v>
+        <v>0.31817702971458461</v>
       </c>
     </row>
     <row r="75" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24084,19 +24084,19 @@
         <v>48</v>
       </c>
       <c r="DN75" s="51">
-        <v>2761372.3190158634</v>
+        <v>8514837.6747292206</v>
       </c>
       <c r="DO75" s="52">
-        <v>126173258.17002374</v>
+        <v>360423259.33342594</v>
       </c>
       <c r="DP75" s="53">
-        <v>0.33360000000000001</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="DQ75" s="53">
-        <v>6.9788134011512598E-2</v>
+        <v>8.2277135460875034E-2</v>
       </c>
       <c r="DR75" s="54">
-        <v>0.26381186598848738</v>
+        <v>0.55592286453912498</v>
       </c>
     </row>
     <row r="76" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24295,19 +24295,19 @@
         <v>52</v>
       </c>
       <c r="DN76" s="51">
-        <v>3306650.6831659679</v>
+        <v>3308515.9735254152</v>
       </c>
       <c r="DO76" s="52">
-        <v>134686689.98985428</v>
+        <v>135078927.34186864</v>
       </c>
       <c r="DP76" s="53">
         <v>0.34749999999999998</v>
       </c>
       <c r="DQ76" s="53">
-        <v>6.769903897332373E-2</v>
+        <v>6.6873656376477936E-2</v>
       </c>
       <c r="DR76" s="54">
-        <v>0.27980096102667623</v>
+        <v>0.28062634362352201</v>
       </c>
     </row>
     <row r="77" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24490,19 +24490,19 @@
         <v>56</v>
       </c>
       <c r="DN77" s="51">
-        <v>14868079.917404663</v>
+        <v>14878105.793818031</v>
       </c>
       <c r="DO77" s="52">
-        <v>572233000.02870989</v>
+        <v>574637580.97929406</v>
       </c>
       <c r="DP77" s="53">
         <v>0.45100000000000001</v>
       </c>
       <c r="DQ77" s="53">
-        <v>7.4701166348642101E-2</v>
+        <v>7.3504505890878993E-2</v>
       </c>
       <c r="DR77" s="54">
-        <v>0.37629883365135791</v>
+        <v>0.37749549410912103</v>
       </c>
     </row>
     <row r="78" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -24707,19 +24707,19 @@
         <v>60</v>
       </c>
       <c r="DN78" s="51">
-        <v>12216941.359490929</v>
+        <v>12226470.748793839</v>
       </c>
       <c r="DO78" s="52">
-        <v>500621246.148974</v>
+        <v>503031993.28202367</v>
       </c>
       <c r="DP78" s="53">
         <v>0.48170000000000002</v>
       </c>
       <c r="DQ78" s="53">
-        <v>7.8562236311055772E-2</v>
+        <v>7.7161060419317279E-2</v>
       </c>
       <c r="DR78" s="54">
-        <v>0.40313776368894427</v>
+        <v>0.40453893958068277</v>
       </c>
     </row>
     <row r="79" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24735,7 +24735,7 @@
         <v>88</v>
       </c>
       <c r="G79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="7"/>
@@ -24753,7 +24753,7 @@
         <v>88</v>
       </c>
       <c r="Q79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="R79" s="17"/>
       <c r="S79" s="7"/>
@@ -24771,7 +24771,7 @@
         <v>88</v>
       </c>
       <c r="AA79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="7"/>
@@ -24789,7 +24789,7 @@
         <v>88</v>
       </c>
       <c r="AK79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="AL79" s="17"/>
       <c r="AM79" s="7"/>
@@ -24800,14 +24800,14 @@
         <v>189</v>
       </c>
       <c r="AR79" s="193">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AS79" s="14"/>
       <c r="AT79" s="190" t="s">
         <v>88</v>
       </c>
       <c r="AU79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="AV79" s="17"/>
       <c r="AW79" s="7"/>
@@ -24825,7 +24825,7 @@
         <v>88</v>
       </c>
       <c r="BE79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="BF79" s="17"/>
       <c r="BG79" s="7"/>
@@ -24843,7 +24843,7 @@
         <v>88</v>
       </c>
       <c r="BO79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="BP79" s="17"/>
       <c r="BQ79" s="7"/>
@@ -24861,7 +24861,7 @@
         <v>88</v>
       </c>
       <c r="BY79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="BZ79" s="17"/>
       <c r="CA79" s="7"/>
@@ -24879,7 +24879,7 @@
         <v>88</v>
       </c>
       <c r="CI79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="CJ79" s="17"/>
       <c r="CK79" s="7"/>
@@ -24897,7 +24897,7 @@
         <v>88</v>
       </c>
       <c r="CS79" s="191">
-        <v>0.30805702671731605</v>
+        <v>0.33402985339630975</v>
       </c>
       <c r="CT79" s="17"/>
       <c r="CU79" s="7"/>
@@ -24905,7 +24905,7 @@
       <c r="CW79" s="7"/>
       <c r="CX79" s="7"/>
       <c r="CY79" s="95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ79" s="119" t="s">
         <v>32</v>
@@ -24926,7 +24926,7 @@
         <v>2523509.9489763351</v>
       </c>
       <c r="DF79" s="61">
-        <v>2200327.6783303246</v>
+        <v>2203383.2722184472</v>
       </c>
       <c r="DG79" s="61"/>
       <c r="DH79" s="61"/>
@@ -24938,19 +24938,19 @@
         <v>63</v>
       </c>
       <c r="DN79" s="51">
-        <v>2118365.375750056</v>
+        <v>2272277.9270319091</v>
       </c>
       <c r="DO79" s="52">
-        <v>114462228.9073088</v>
+        <v>122940303.40975477</v>
       </c>
       <c r="DP79" s="53">
-        <v>0.25929999999999997</v>
+        <v>0.26390000000000002</v>
       </c>
       <c r="DQ79" s="53">
-        <v>7.2677095940232958E-2</v>
+        <v>7.2079198310096237E-2</v>
       </c>
       <c r="DR79" s="54">
-        <v>0.186622904059767</v>
+        <v>0.19182080168990379</v>
       </c>
     </row>
     <row r="80" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -25056,7 +25056,7 @@
       <c r="CW80" s="7"/>
       <c r="CX80" s="7"/>
       <c r="CY80" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ80" s="119" t="s">
         <v>36</v>
@@ -25077,7 +25077,7 @@
         <v>1746419.3258080313</v>
       </c>
       <c r="DF80" s="61">
-        <v>3415732.4257783666</v>
+        <v>3418173.9642719193</v>
       </c>
       <c r="DG80" s="61"/>
       <c r="DH80" s="61"/>
@@ -25089,19 +25089,19 @@
         <v>67</v>
       </c>
       <c r="DN80" s="82">
-        <v>2408773.7074818597</v>
+        <v>2597908.9010407696</v>
       </c>
       <c r="DO80" s="83">
-        <v>126476979.45176168</v>
+        <v>136684487.28846383</v>
       </c>
       <c r="DP80" s="84">
-        <v>0.26369999999999999</v>
+        <v>0.26850000000000002</v>
       </c>
       <c r="DQ80" s="84">
-        <v>7.3355762485967854E-2</v>
+        <v>7.2737886510282873E-2</v>
       </c>
       <c r="DR80" s="85">
-        <v>0.19034423751403212</v>
+        <v>0.19576211348971714</v>
       </c>
     </row>
     <row r="81" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -25288,7 +25288,7 @@
         <v>1403410.9373721944</v>
       </c>
       <c r="DF81" s="61">
-        <v>1999435.2390475289</v>
+        <v>2001033.7795587736</v>
       </c>
       <c r="DG81" s="61"/>
       <c r="DH81" s="61"/>
@@ -25316,7 +25316,7 @@
         <v>191</v>
       </c>
       <c r="G82" s="199">
-        <v>121.50784722681637</v>
+        <v>121.96373852837264</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="7"/>
@@ -25334,7 +25334,7 @@
         <v>191</v>
       </c>
       <c r="Q82" s="199">
-        <v>184.3783798114157</v>
+        <v>184.86096711277546</v>
       </c>
       <c r="R82" s="17"/>
       <c r="S82" s="7"/>
@@ -25352,7 +25352,7 @@
         <v>191</v>
       </c>
       <c r="AA82" s="199">
-        <v>79.383046892616136</v>
+        <v>79.55910401947196</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="7"/>
@@ -25370,7 +25370,7 @@
         <v>191</v>
       </c>
       <c r="AK82" s="199">
-        <v>252.97458274815344</v>
+        <v>253.80453832003366</v>
       </c>
       <c r="AL82" s="17"/>
       <c r="AM82" s="7"/>
@@ -25381,14 +25381,14 @@
         <v>133</v>
       </c>
       <c r="AR82" s="197">
-        <v>13530</v>
+        <v>4530</v>
       </c>
       <c r="AS82" s="14"/>
       <c r="AT82" s="198" t="s">
         <v>191</v>
       </c>
       <c r="AU82" s="199">
-        <v>161.72369426576748</v>
+        <v>458.11391611135542</v>
       </c>
       <c r="AV82" s="17"/>
       <c r="AW82" s="7"/>
@@ -25406,7 +25406,7 @@
         <v>191</v>
       </c>
       <c r="BE82" s="199">
-        <v>177.22431238523944</v>
+        <v>177.63520264084832</v>
       </c>
       <c r="BF82" s="17"/>
       <c r="BG82" s="7"/>
@@ -25424,7 +25424,7 @@
         <v>191</v>
       </c>
       <c r="BO82" s="199">
-        <v>733.97397825427925</v>
+        <v>736.47881796899708</v>
       </c>
       <c r="BP82" s="17"/>
       <c r="BQ82" s="7"/>
@@ -25442,7 +25442,7 @@
         <v>191</v>
       </c>
       <c r="BY82" s="199">
-        <v>646.82619734192258</v>
+        <v>649.3322383680013</v>
       </c>
       <c r="BZ82" s="17"/>
       <c r="CA82" s="7"/>
@@ -25460,7 +25460,7 @@
         <v>191</v>
       </c>
       <c r="CI82" s="199">
-        <v>143.87251944829151</v>
+        <v>154.38698687427026</v>
       </c>
       <c r="CJ82" s="17"/>
       <c r="CK82" s="7"/>
@@ -25478,7 +25478,7 @@
         <v>191</v>
       </c>
       <c r="CS82" s="199">
-        <v>159.91612963818741</v>
+        <v>172.62929686583581</v>
       </c>
       <c r="CT82" s="17"/>
       <c r="CU82" s="7"/>
@@ -25486,7 +25486,7 @@
       <c r="CW82" s="7"/>
       <c r="CX82" s="7"/>
       <c r="CY82" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ82" s="119" t="s">
         <v>44</v>
@@ -25507,7 +25507,7 @@
         <v>1871123.6633967638</v>
       </c>
       <c r="DF82" s="61">
-        <v>4585312.0111815892</v>
+        <v>4588705.6014637602</v>
       </c>
       <c r="DG82" s="61"/>
       <c r="DH82" s="61"/>
@@ -25600,7 +25600,7 @@
         <v>192</v>
       </c>
       <c r="AR83" s="200">
-        <v>28226</v>
+        <v>19226</v>
       </c>
       <c r="AS83" s="14"/>
       <c r="AT83" s="201" t="s">
@@ -25705,7 +25705,7 @@
       <c r="CW83" s="7"/>
       <c r="CX83" s="7"/>
       <c r="CY83" s="95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CZ83" s="119" t="s">
         <v>48</v>
@@ -25726,7 +25726,7 @@
         <v>1858300.6251646795</v>
       </c>
       <c r="DF83" s="61">
-        <v>2761372.3190158634</v>
+        <v>8514837.6747292206</v>
       </c>
       <c r="DG83" s="61"/>
       <c r="DH83" s="61"/>
@@ -25924,7 +25924,7 @@
       <c r="CW84" s="7"/>
       <c r="CX84" s="7"/>
       <c r="CY84" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ84" s="119" t="s">
         <v>52</v>
@@ -25945,7 +25945,7 @@
         <v>1261767.6917506987</v>
       </c>
       <c r="DF84" s="61">
-        <v>3306650.6831659679</v>
+        <v>3308515.9735254152</v>
       </c>
       <c r="DG84" s="61"/>
       <c r="DH84" s="61"/>
@@ -26124,7 +26124,7 @@
         <v>3246025.8590062261</v>
       </c>
       <c r="DF85" s="61">
-        <v>14868079.917404663</v>
+        <v>14878105.793818031</v>
       </c>
       <c r="DG85" s="61"/>
       <c r="DH85" s="61"/>
@@ -26145,7 +26145,7 @@
         <v>196</v>
       </c>
       <c r="D86" s="197">
-        <v>236230</v>
+        <v>246188</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="188" t="s">
@@ -26161,7 +26161,7 @@
         <v>196</v>
       </c>
       <c r="N86" s="197">
-        <v>64170</v>
+        <v>66976</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="188" t="s">
@@ -26177,7 +26177,7 @@
         <v>196</v>
       </c>
       <c r="X86" s="197">
-        <v>44283</v>
+        <v>46350</v>
       </c>
       <c r="Y86" s="14"/>
       <c r="Z86" s="188" t="s">
@@ -26193,7 +26193,7 @@
         <v>196</v>
       </c>
       <c r="AH86" s="197">
-        <v>230028</v>
+        <v>239771</v>
       </c>
       <c r="AI86" s="14"/>
       <c r="AJ86" s="188" t="s">
@@ -26209,7 +26209,7 @@
         <v>196</v>
       </c>
       <c r="AR86" s="197">
-        <v>504572</v>
+        <v>64208</v>
       </c>
       <c r="AS86" s="14"/>
       <c r="AT86" s="188" t="s">
@@ -26225,7 +26225,7 @@
         <v>196</v>
       </c>
       <c r="BB86" s="197">
-        <v>300441</v>
+        <v>313108</v>
       </c>
       <c r="BC86" s="14"/>
       <c r="BD86" s="188" t="s">
@@ -26241,7 +26241,7 @@
         <v>196</v>
       </c>
       <c r="BL86" s="197">
-        <v>112131</v>
+        <v>116966</v>
       </c>
       <c r="BM86" s="14"/>
       <c r="BN86" s="188" t="s">
@@ -26257,7 +26257,7 @@
         <v>196</v>
       </c>
       <c r="BV86" s="197">
-        <v>86277</v>
+        <v>90043</v>
       </c>
       <c r="BW86" s="14"/>
       <c r="BX86" s="188" t="s">
@@ -26273,7 +26273,7 @@
         <v>196</v>
       </c>
       <c r="CF86" s="197">
-        <v>124636</v>
+        <v>121816</v>
       </c>
       <c r="CG86" s="14"/>
       <c r="CH86" s="188" t="s">
@@ -26289,7 +26289,7 @@
         <v>196</v>
       </c>
       <c r="CP86" s="197">
-        <v>131142</v>
+        <v>127477</v>
       </c>
       <c r="CQ86" s="14"/>
       <c r="CR86" s="188" t="s">
@@ -26323,7 +26323,7 @@
         <v>4202229.3434349401</v>
       </c>
       <c r="DF86" s="61">
-        <v>12216941.359490929</v>
+        <v>12226470.748793839</v>
       </c>
       <c r="DG86" s="61"/>
       <c r="DH86" s="61"/>
@@ -26351,7 +26351,7 @@
         <v>191</v>
       </c>
       <c r="G87" s="206">
-        <v>121.50784722681637</v>
+        <v>121.96373852837264</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="7"/>
@@ -26369,7 +26369,7 @@
         <v>191</v>
       </c>
       <c r="Q87" s="206">
-        <v>184.3783798114157</v>
+        <v>184.86096711277546</v>
       </c>
       <c r="R87" s="17"/>
       <c r="S87" s="7"/>
@@ -26387,7 +26387,7 @@
         <v>191</v>
       </c>
       <c r="AA87" s="206">
-        <v>79.383046892616136</v>
+        <v>79.55910401947196</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="7"/>
@@ -26405,7 +26405,7 @@
         <v>191</v>
       </c>
       <c r="AK87" s="206">
-        <v>252.97458274815344</v>
+        <v>253.80453832003366</v>
       </c>
       <c r="AL87" s="17"/>
       <c r="AM87" s="7"/>
@@ -26423,7 +26423,7 @@
         <v>191</v>
       </c>
       <c r="AU87" s="206">
-        <v>161.72369426576748</v>
+        <v>458.11391611135542</v>
       </c>
       <c r="AV87" s="17"/>
       <c r="AW87" s="7"/>
@@ -26441,7 +26441,7 @@
         <v>191</v>
       </c>
       <c r="BE87" s="206">
-        <v>177.22431238523944</v>
+        <v>177.63520264084832</v>
       </c>
       <c r="BF87" s="17"/>
       <c r="BG87" s="7"/>
@@ -26459,7 +26459,7 @@
         <v>191</v>
       </c>
       <c r="BO87" s="206">
-        <v>733.97397825427925</v>
+        <v>736.47881796899708</v>
       </c>
       <c r="BP87" s="17"/>
       <c r="BQ87" s="7"/>
@@ -26477,7 +26477,7 @@
         <v>191</v>
       </c>
       <c r="BY87" s="206">
-        <v>646.82619734192258</v>
+        <v>649.3322383680013</v>
       </c>
       <c r="BZ87" s="17"/>
       <c r="CA87" s="7"/>
@@ -26495,7 +26495,7 @@
         <v>191</v>
       </c>
       <c r="CI87" s="206">
-        <v>143.87251944829151</v>
+        <v>154.38698687427026</v>
       </c>
       <c r="CJ87" s="17"/>
       <c r="CK87" s="7"/>
@@ -26513,7 +26513,7 @@
         <v>191</v>
       </c>
       <c r="CS87" s="206">
-        <v>159.91612963818741</v>
+        <v>172.62929686583581</v>
       </c>
       <c r="CT87" s="17"/>
       <c r="CU87" s="7"/>
@@ -26521,7 +26521,7 @@
       <c r="CW87" s="7"/>
       <c r="CX87" s="7"/>
       <c r="CY87" s="95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CZ87" s="119" t="s">
         <v>63</v>
@@ -26539,10 +26539,10 @@
         <v>70645.181179829582</v>
       </c>
       <c r="DE87" s="61">
-        <v>4302584.8957567103</v>
+        <v>4614898.8803835269</v>
       </c>
       <c r="DF87" s="61">
-        <v>2118365.375750056</v>
+        <v>2272277.9270319091</v>
       </c>
       <c r="DG87" s="61"/>
       <c r="DH87" s="61"/>
@@ -26563,7 +26563,7 @@
         <v>197</v>
       </c>
       <c r="D88" s="200">
-        <v>223230</v>
+        <v>233188</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="190" t="s">
@@ -26581,7 +26581,7 @@
         <v>197</v>
       </c>
       <c r="N88" s="200">
-        <v>53170</v>
+        <v>55976</v>
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="190" t="s">
@@ -26599,7 +26599,7 @@
         <v>197</v>
       </c>
       <c r="X88" s="200">
-        <v>36722</v>
+        <v>38789</v>
       </c>
       <c r="Y88" s="14"/>
       <c r="Z88" s="190" t="s">
@@ -26617,7 +26617,7 @@
         <v>197</v>
       </c>
       <c r="AH88" s="200">
-        <v>204795</v>
+        <v>214538</v>
       </c>
       <c r="AI88" s="14"/>
       <c r="AJ88" s="190" t="s">
@@ -26635,7 +26635,7 @@
         <v>197</v>
       </c>
       <c r="AR88" s="200">
-        <v>489876</v>
+        <v>49512</v>
       </c>
       <c r="AS88" s="14"/>
       <c r="AT88" s="190" t="s">
@@ -26653,7 +26653,7 @@
         <v>197</v>
       </c>
       <c r="BB88" s="200">
-        <v>290441</v>
+        <v>303108</v>
       </c>
       <c r="BC88" s="14"/>
       <c r="BD88" s="190" t="s">
@@ -26671,7 +26671,7 @@
         <v>197</v>
       </c>
       <c r="BL88" s="200">
-        <v>80131</v>
+        <v>84966</v>
       </c>
       <c r="BM88" s="14"/>
       <c r="BN88" s="190" t="s">
@@ -26689,7 +26689,7 @@
         <v>197</v>
       </c>
       <c r="BV88" s="200">
-        <v>65177</v>
+        <v>68943</v>
       </c>
       <c r="BW88" s="14"/>
       <c r="BX88" s="190" t="s">
@@ -26707,7 +26707,7 @@
         <v>197</v>
       </c>
       <c r="CF88" s="200">
-        <v>107060</v>
+        <v>104240</v>
       </c>
       <c r="CG88" s="14"/>
       <c r="CH88" s="190" t="s">
@@ -26725,7 +26725,7 @@
         <v>197</v>
       </c>
       <c r="CP88" s="200">
-        <v>113048</v>
+        <v>109383</v>
       </c>
       <c r="CQ88" s="14"/>
       <c r="CR88" s="190" t="s">
@@ -26758,10 +26758,10 @@
         <v>84588.559554489853</v>
       </c>
       <c r="DE88" s="76">
-        <v>5004402.805726558</v>
+        <v>5393240.2676046789</v>
       </c>
       <c r="DF88" s="76">
-        <v>2408773.7074818597</v>
+        <v>2597908.9010407696</v>
       </c>
       <c r="DG88" s="76"/>
       <c r="DH88" s="76"/>
@@ -26854,14 +26854,14 @@
         <v>198</v>
       </c>
       <c r="AR89" s="207">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="AS89" s="14"/>
       <c r="AT89" s="190" t="s">
         <v>199</v>
       </c>
       <c r="AU89" s="191">
-        <v>7.0056309146948464E-2</v>
+        <v>8.2413977509167277E-2</v>
       </c>
       <c r="AV89" s="17"/>
       <c r="AW89" s="7"/>
@@ -26879,7 +26879,7 @@
         <v>199</v>
       </c>
       <c r="BE89" s="191">
-        <v>6.7955735834414527E-2</v>
+        <v>6.7123322177686809E-2</v>
       </c>
       <c r="BF89" s="17"/>
       <c r="BG89" s="7"/>
@@ -27214,7 +27214,7 @@
         <v>201</v>
       </c>
       <c r="AR91" s="210">
-        <v>565</v>
+        <v>385</v>
       </c>
       <c r="AS91" s="14"/>
       <c r="AT91" s="188" t="s">
@@ -27354,7 +27354,7 @@
         <v>202</v>
       </c>
       <c r="G92" s="199">
-        <v>0.47210114172534307</v>
+        <v>0.44675253953918387</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="7"/>
@@ -27372,7 +27372,7 @@
         <v>202</v>
       </c>
       <c r="Q92" s="199">
-        <v>0.39414058879787145</v>
+        <v>0.37305399416756396</v>
       </c>
       <c r="R92" s="17"/>
       <c r="S92" s="7"/>
@@ -27390,7 +27390,7 @@
         <v>202</v>
       </c>
       <c r="AA92" s="199">
-        <v>0.42680925066769382</v>
+        <v>0.40395911739091844</v>
       </c>
       <c r="AB92" s="17"/>
       <c r="AC92" s="7"/>
@@ -27408,7 +27408,7 @@
         <v>202</v>
       </c>
       <c r="AK92" s="199">
-        <v>0.55773524420421561</v>
+        <v>0.52788285859740325</v>
       </c>
       <c r="AL92" s="17"/>
       <c r="AM92" s="7"/>
@@ -27419,14 +27419,14 @@
         <v>75</v>
       </c>
       <c r="AR92" s="168">
-        <v>20.722917800762112</v>
+        <v>14.598802395209582</v>
       </c>
       <c r="AS92" s="14"/>
       <c r="AT92" s="190" t="s">
         <v>202</v>
       </c>
       <c r="AU92" s="199">
-        <v>0.44251401370798166</v>
+        <v>0.75223001276108459</v>
       </c>
       <c r="AV92" s="17"/>
       <c r="AW92" s="7"/>
@@ -27444,7 +27444,7 @@
         <v>202</v>
       </c>
       <c r="BE92" s="199">
-        <v>0.38986806602542684</v>
+        <v>0.36900556836307791</v>
       </c>
       <c r="BF92" s="17"/>
       <c r="BG92" s="7"/>
@@ -27462,7 +27462,7 @@
         <v>202</v>
       </c>
       <c r="BO92" s="199">
-        <v>0.56340273911589689</v>
+        <v>0.53326118836875014</v>
       </c>
       <c r="BP92" s="17"/>
       <c r="BQ92" s="7"/>
@@ -27480,7 +27480,7 @@
         <v>202</v>
       </c>
       <c r="BY92" s="199">
-        <v>0.6579722639675325</v>
+        <v>0.62277278663931146</v>
       </c>
       <c r="BZ92" s="17"/>
       <c r="CA92" s="7"/>
@@ -27498,7 +27498,7 @@
         <v>202</v>
       </c>
       <c r="CI92" s="199">
-        <v>0.53400626240569371</v>
+        <v>0.51773016458334598</v>
       </c>
       <c r="CJ92" s="17"/>
       <c r="CK92" s="7"/>
@@ -27516,7 +27516,7 @@
         <v>202</v>
       </c>
       <c r="CS92" s="199">
-        <v>0.53400626240569371</v>
+        <v>0.51773016458334598</v>
       </c>
       <c r="CT92" s="17"/>
       <c r="CU92" s="7"/>
@@ -27571,7 +27571,7 @@
         <v>203</v>
       </c>
       <c r="G93" s="199">
-        <v>0.22628179703525086</v>
+        <v>0.21538108895781291</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="7"/>
@@ -27589,7 +27589,7 @@
         <v>203</v>
       </c>
       <c r="Q93" s="199">
-        <v>0.32489724762275457</v>
+        <v>0.30926099072105762</v>
       </c>
       <c r="R93" s="17"/>
       <c r="S93" s="7"/>
@@ -27607,7 +27607,7 @@
         <v>203</v>
       </c>
       <c r="AA93" s="199">
-        <v>0.18769859078860199</v>
+        <v>0.1786607165196033</v>
       </c>
       <c r="AB93" s="17"/>
       <c r="AC93" s="7"/>
@@ -27625,7 +27625,7 @@
         <v>203</v>
       </c>
       <c r="AK93" s="199">
-        <v>0.49098849288533308</v>
+        <v>0.46735492023193581</v>
       </c>
       <c r="AL93" s="17"/>
       <c r="AM93" s="7"/>
@@ -27636,14 +27636,14 @@
         <v>77</v>
       </c>
       <c r="AR93" s="168">
-        <v>96.860302123026671</v>
+        <v>84.567977681001636</v>
       </c>
       <c r="AS93" s="14"/>
       <c r="AT93" s="190" t="s">
         <v>203</v>
       </c>
       <c r="AU93" s="199">
-        <v>0.29385480544272397</v>
+        <v>0.49871890092135401</v>
       </c>
       <c r="AV93" s="17"/>
       <c r="AW93" s="7"/>
@@ -27661,7 +27661,7 @@
         <v>203</v>
       </c>
       <c r="BE93" s="199">
-        <v>0.32169166113781933</v>
+        <v>0.3062095835971112</v>
       </c>
       <c r="BF93" s="17"/>
       <c r="BG93" s="7"/>
@@ -27679,7 +27679,7 @@
         <v>203</v>
       </c>
       <c r="BO93" s="199">
-        <v>1.5904586175066771</v>
+        <v>1.5139182410277214</v>
       </c>
       <c r="BP93" s="17"/>
       <c r="BQ93" s="7"/>
@@ -27697,7 +27697,7 @@
         <v>203</v>
       </c>
       <c r="BY93" s="199">
-        <v>1.2363441127247106</v>
+        <v>1.176851996375146</v>
       </c>
       <c r="BZ93" s="17"/>
       <c r="CA93" s="7"/>
@@ -27715,7 +27715,7 @@
         <v>203</v>
       </c>
       <c r="CI93" s="199">
-        <v>0.57191116396063502</v>
+        <v>0.58524332857165984</v>
       </c>
       <c r="CJ93" s="17"/>
       <c r="CK93" s="7"/>
@@ -27733,7 +27733,7 @@
         <v>203</v>
       </c>
       <c r="CS93" s="199">
-        <v>0.57191116396063502</v>
+        <v>0.58524332857165984</v>
       </c>
       <c r="CT93" s="17"/>
       <c r="CU93" s="7"/>
@@ -27788,7 +27788,7 @@
         <v>205</v>
       </c>
       <c r="G94" s="213">
-        <v>7.1236835554841185E-2</v>
+        <v>7.0225426327613444E-2</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="7"/>
@@ -27806,7 +27806,7 @@
         <v>205</v>
       </c>
       <c r="Q94" s="213">
-        <v>6.8126209493035078E-2</v>
+        <v>6.7284854367285804E-2</v>
       </c>
       <c r="R94" s="17"/>
       <c r="S94" s="7"/>
@@ -27824,7 +27824,7 @@
         <v>205</v>
       </c>
       <c r="AA94" s="213">
-        <v>6.942968910164099E-2</v>
+        <v>6.8517968783897654E-2</v>
       </c>
       <c r="AB94" s="17"/>
       <c r="AC94" s="7"/>
@@ -27842,7 +27842,7 @@
         <v>205</v>
       </c>
       <c r="AK94" s="213">
-        <v>7.4653636243748211E-2</v>
+        <v>7.3462526058036395E-2</v>
       </c>
       <c r="AL94" s="17"/>
       <c r="AM94" s="7"/>
@@ -27860,7 +27860,7 @@
         <v>205</v>
       </c>
       <c r="AU94" s="213">
-        <v>7.0056309146948464E-2</v>
+        <v>8.2413977509167277E-2</v>
       </c>
       <c r="AV94" s="17"/>
       <c r="AW94" s="7"/>
@@ -27878,7 +27878,7 @@
         <v>205</v>
       </c>
       <c r="BE94" s="213">
-        <v>6.7955735834414527E-2</v>
+        <v>6.7123322177686809E-2</v>
       </c>
       <c r="BF94" s="17"/>
       <c r="BG94" s="7"/>
@@ -27896,7 +27896,7 @@
         <v>205</v>
       </c>
       <c r="BO94" s="213">
-        <v>7.4879769290724291E-2</v>
+        <v>7.3677121415913135E-2</v>
       </c>
       <c r="BP94" s="17"/>
       <c r="BQ94" s="7"/>
@@ -27914,7 +27914,7 @@
         <v>205</v>
       </c>
       <c r="BY94" s="213">
-        <v>7.8653093332304552E-2</v>
+        <v>7.7248634186908527E-2</v>
       </c>
       <c r="BZ94" s="17"/>
       <c r="CA94" s="7"/>
@@ -27932,7 +27932,7 @@
         <v>205</v>
       </c>
       <c r="CI94" s="213">
-        <v>7.3706849869987184E-2</v>
+        <v>7.305743356687551E-2</v>
       </c>
       <c r="CJ94" s="17"/>
       <c r="CK94" s="7"/>
@@ -27950,7 +27950,7 @@
         <v>205</v>
       </c>
       <c r="CS94" s="213">
-        <v>7.3706849869987184E-2</v>
+        <v>7.305743356687551E-2</v>
       </c>
       <c r="CT94" s="17"/>
       <c r="CU94" s="7"/>
@@ -28114,7 +28114,7 @@
         <v>1122915.9519725558</v>
       </c>
       <c r="DF95" s="61">
-        <v>940000</v>
+        <v>1020000</v>
       </c>
       <c r="DG95" s="61"/>
       <c r="DH95" s="61"/>
@@ -29184,7 +29184,7 @@
         <v>86310120.302303597</v>
       </c>
       <c r="DF103" s="61">
-        <v>93392933.413810149</v>
+        <v>93818268.776485205</v>
       </c>
       <c r="DG103" s="61"/>
       <c r="DH103" s="61"/>
@@ -29321,7 +29321,7 @@
         <v>58232989.211920574</v>
       </c>
       <c r="DF104" s="61">
-        <v>136824156.30782199</v>
+        <v>137282328.22424623</v>
       </c>
       <c r="DG104" s="61"/>
       <c r="DH104" s="61"/>
@@ -29458,7 +29458,7 @@
         <v>39485796.350298084</v>
       </c>
       <c r="DF105" s="61">
-        <v>51373495.457827076</v>
+        <v>51533567.179570451</v>
       </c>
       <c r="DG105" s="61"/>
       <c r="DH105" s="61"/>
@@ -29595,7 +29595,7 @@
         <v>61281674.224870756</v>
       </c>
       <c r="DF106" s="61">
-        <v>199376010.30989915</v>
+        <v>200172029.97895762</v>
       </c>
       <c r="DG106" s="61"/>
       <c r="DH106" s="61"/>
@@ -29732,7 +29732,7 @@
         <v>72970075.088672742</v>
       </c>
       <c r="DF107" s="61">
-        <v>125233258.17002374</v>
+        <v>359403259.33342594</v>
       </c>
       <c r="DG107" s="61"/>
       <c r="DH107" s="61"/>
@@ -29869,7 +29869,7 @@
         <v>43885711.587374508</v>
       </c>
       <c r="DF108" s="61">
-        <v>133666689.98985428</v>
+        <v>134058927.34186864</v>
       </c>
       <c r="DG108" s="61"/>
       <c r="DH108" s="61"/>
@@ -30006,7 +30006,7 @@
         <v>102275350.78719021</v>
       </c>
       <c r="DF109" s="61">
-        <v>569729250.02870989</v>
+        <v>572133830.97929406</v>
       </c>
       <c r="DG109" s="61"/>
       <c r="DH109" s="61"/>
@@ -30143,7 +30143,7 @@
         <v>140275885.0000248</v>
       </c>
       <c r="DF110" s="61">
-        <v>499601246.148974</v>
+        <v>502011993.28202367</v>
       </c>
       <c r="DG110" s="61"/>
       <c r="DH110" s="61"/>
@@ -30277,10 +30277,10 @@
         <v>1220178.5712751914</v>
       </c>
       <c r="DE111" s="61">
-        <v>78421803.13683185</v>
+        <v>77888209.464988679</v>
       </c>
       <c r="DF111" s="61">
-        <v>113342228.9073088</v>
+        <v>121820303.40975477</v>
       </c>
       <c r="DG111" s="61"/>
       <c r="DH111" s="61"/>
@@ -30414,10 +30414,10 @@
         <v>1221991.5800416709</v>
       </c>
       <c r="DE112" s="76">
-        <v>95941107.317186818</v>
+        <v>95095786.057419255</v>
       </c>
       <c r="DF112" s="76">
-        <v>125356979.45176168</v>
+        <v>135564487.28846383</v>
       </c>
       <c r="DG112" s="76"/>
       <c r="DH112" s="76"/>
@@ -30804,7 +30804,7 @@
         <v>87933036.254276156</v>
       </c>
       <c r="DF115" s="61">
-        <v>95412933.413810149</v>
+        <v>95838268.776485205</v>
       </c>
       <c r="DG115" s="61"/>
       <c r="DH115" s="61"/>
@@ -30922,7 +30922,7 @@
       <c r="CW116" s="7"/>
       <c r="CX116" s="7"/>
       <c r="CY116" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ116" s="119" t="s">
         <v>36</v>
@@ -30943,7 +30943,7 @@
         <v>59230905.163893133</v>
       </c>
       <c r="DF116" s="61">
-        <v>137719156.30782199</v>
+        <v>138177328.22424623</v>
       </c>
       <c r="DG116" s="61"/>
       <c r="DH116" s="61"/>
@@ -31082,7 +31082,7 @@
         <v>40608712.302270643</v>
       </c>
       <c r="DF117" s="61">
-        <v>52393494.457827076</v>
+        <v>52553566.179570451</v>
       </c>
       <c r="DG117" s="61"/>
       <c r="DH117" s="61"/>
@@ -31200,7 +31200,7 @@
       <c r="CW118" s="7"/>
       <c r="CX118" s="7"/>
       <c r="CY118" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ118" s="119" t="s">
         <v>44</v>
@@ -31221,7 +31221,7 @@
         <v>63204590.176843315</v>
       </c>
       <c r="DF118" s="61">
-        <v>201116010.30989915</v>
+        <v>201912029.97895762</v>
       </c>
       <c r="DG118" s="61"/>
       <c r="DH118" s="61"/>
@@ -31339,7 +31339,7 @@
       <c r="CW119" s="7"/>
       <c r="CX119" s="7"/>
       <c r="CY119" s="95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CZ119" s="119" t="s">
         <v>48</v>
@@ -31360,7 +31360,7 @@
         <v>74092991.040645301</v>
       </c>
       <c r="DF119" s="61">
-        <v>126173258.17002374</v>
+        <v>360423259.33342594</v>
       </c>
       <c r="DG119" s="61"/>
       <c r="DH119" s="61"/>
@@ -31478,7 +31478,7 @@
       <c r="CW120" s="7"/>
       <c r="CX120" s="7"/>
       <c r="CY120" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CZ120" s="119" t="s">
         <v>52</v>
@@ -31499,7 +31499,7 @@
         <v>45008627.539347067</v>
       </c>
       <c r="DF120" s="61">
-        <v>134686689.98985428</v>
+        <v>135078927.34186864</v>
       </c>
       <c r="DG120" s="61"/>
       <c r="DH120" s="61"/>
@@ -31638,7 +31638,7 @@
         <v>104882016.73916277</v>
       </c>
       <c r="DF121" s="61">
-        <v>572233000.02870989</v>
+        <v>574637580.97929406</v>
       </c>
       <c r="DG121" s="61"/>
       <c r="DH121" s="61"/>
@@ -31777,7 +31777,7 @@
         <v>141398800.95199734</v>
       </c>
       <c r="DF122" s="61">
-        <v>500621246.148974</v>
+        <v>503031993.28202367</v>
       </c>
       <c r="DG122" s="61"/>
       <c r="DH122" s="61"/>
@@ -31913,10 +31913,10 @@
         <v>5167986.586009495</v>
       </c>
       <c r="DE123" s="61">
-        <v>79644719.088804409</v>
+        <v>79111125.416961238</v>
       </c>
       <c r="DF123" s="61">
-        <v>114462228.9073088</v>
+        <v>122940303.40975477</v>
       </c>
       <c r="DG123" s="61"/>
       <c r="DH123" s="61"/>
@@ -32052,10 +32052,10 @@
         <v>5739383.5726409871</v>
       </c>
       <c r="DE124" s="76">
-        <v>97164023.269159377</v>
+        <v>96318702.009391814</v>
       </c>
       <c r="DF124" s="76">
-        <v>126476979.45176168</v>
+        <v>136684487.28846383</v>
       </c>
       <c r="DG124" s="76"/>
       <c r="DH124" s="76"/>
@@ -32440,7 +32440,7 @@
         <v>73.455421533875409</v>
       </c>
       <c r="DF127" s="61">
-        <v>79.483347586221399</v>
+        <v>79.84533512892358</v>
       </c>
       <c r="DG127" s="61"/>
       <c r="DH127" s="61"/>
@@ -32577,7 +32577,7 @@
         <v>49.559990818655805</v>
       </c>
       <c r="DF128" s="61">
-        <v>116.44609047474212</v>
+        <v>116.83602402063509</v>
       </c>
       <c r="DG128" s="61"/>
       <c r="DH128" s="61"/>
@@ -32714,7 +32714,7 @@
         <v>33.604933064083475</v>
       </c>
       <c r="DF129" s="61">
-        <v>43.722123793895385</v>
+        <v>43.858355046442938</v>
       </c>
       <c r="DG129" s="61"/>
       <c r="DH129" s="61"/>
@@ -32851,7 +32851,7 @@
         <v>50.025856510098578</v>
       </c>
       <c r="DF130" s="61">
-        <v>162.75592678359115</v>
+        <v>163.40573875833275</v>
       </c>
       <c r="DG130" s="61"/>
       <c r="DH130" s="61"/>
@@ -32988,7 +32988,7 @@
         <v>62.102191564827869</v>
       </c>
       <c r="DF131" s="61">
-        <v>106.58149631491382</v>
+        <v>305.87511432631993</v>
       </c>
       <c r="DG131" s="61"/>
       <c r="DH131" s="61"/>
@@ -33125,7 +33125,7 @@
         <v>37.349541776488941</v>
       </c>
       <c r="DF132" s="61">
-        <v>113.75888509774832</v>
+        <v>114.09270412073927</v>
       </c>
       <c r="DG132" s="61"/>
       <c r="DH132" s="61"/>
@@ -33262,7 +33262,7 @@
         <v>87.042851733778903</v>
       </c>
       <c r="DF133" s="61">
-        <v>484.87595747124249</v>
+        <v>486.92240934408005</v>
       </c>
       <c r="DG133" s="61"/>
       <c r="DH133" s="61"/>
@@ -33399,7 +33399,7 @@
         <v>119.38373191491472</v>
       </c>
       <c r="DF134" s="61">
-        <v>425.19254991402045</v>
+        <v>427.24424960172229</v>
       </c>
       <c r="DG134" s="61"/>
       <c r="DH134" s="61"/>
@@ -33533,10 +33533,10 @@
         <v>3.3598366082845135</v>
       </c>
       <c r="DE135" s="61">
-        <v>66.741960116452631</v>
+        <v>66.287837842543553</v>
       </c>
       <c r="DF135" s="61">
-        <v>96.461471410475582</v>
+        <v>103.67685396574873</v>
       </c>
       <c r="DG135" s="61"/>
       <c r="DH135" s="61"/>
@@ -33670,10 +33670,10 @@
         <v>3.8445889298717582</v>
       </c>
       <c r="DE136" s="228">
-        <v>81.652006227393031</v>
+        <v>80.932583878654683</v>
       </c>
       <c r="DF136" s="228">
-        <v>106.68679102277589</v>
+        <v>115.37403173486284</v>
       </c>
       <c r="DG136" s="228"/>
       <c r="DH136" s="228"/>
